--- a/Statistical Analysis/Stastical Study of Seed Properties.xlsx
+++ b/Statistical Analysis/Stastical Study of Seed Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shash\Documents\GitHub\samaraAnalysis\Statistical Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D852C-1942-428A-B6D0-3706D740CBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A21792-1270-4474-B32A-1061D0F9AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{70F3C3AB-0120-463F-BA39-B2976DA3DFB9}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Transition Time Stats MASTER" sheetId="8" r:id="rId3"/>
     <sheet name="Rounded Properties" sheetId="9" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">sampleProperties_revA!$C$3:$C$102</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">sampleProperties_revA!$F$3:$F$102</definedName>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="68">
   <si>
     <t>Explanatory Variables</t>
   </si>
@@ -241,6 +238,15 @@
   </si>
   <si>
     <t>Aspect Ratio = b^2/A Rounded</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
+  <si>
+    <t>Chord</t>
   </si>
 </sst>
 </file>
@@ -787,7 +793,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="15" applyFont="1"/>
@@ -849,9 +855,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -899,10 +902,6 @@
   </cellStyles>
   <dxfs count="90">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -916,6 +915,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1004,7 +1007,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1016,11 +1031,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1047,35 +1079,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4617,16 +4620,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2254250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>911225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4662,7 +4665,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20608925" y="3330575"/>
+              <a:off x="26695400" y="3844925"/>
               <a:ext cx="7251700" cy="3702050"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4823,8 +4826,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="54257576" y="876300"/>
-              <a:ext cx="10321925" cy="1819275"/>
+              <a:off x="54257576" y="5734050"/>
+              <a:ext cx="10321925" cy="11439525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4906,8 +4909,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="54257576" y="876300"/>
-              <a:ext cx="10321925" cy="1819275"/>
+              <a:off x="54038501" y="6000750"/>
+              <a:ext cx="10321925" cy="11439525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4989,8 +4992,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="54038501" y="6000750"/>
-              <a:ext cx="10321925" cy="11439525"/>
+              <a:off x="52800251" y="5991225"/>
+              <a:ext cx="10321925" cy="11430000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5021,2371 +5024,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="2 Sample T Test Loading Differe"/>
-      <sheetName val="2 Sample T Test Mass Difference"/>
-      <sheetName val="2 Sample T Test  Span, Chord, A"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="K2" t="str">
-            <v>Mass Count</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Span</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>Chord</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>S</v>
-          </cell>
-          <cell r="K3">
-            <v>16</v>
-          </cell>
-          <cell r="L3">
-            <v>28</v>
-          </cell>
-          <cell r="M3">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4" t="str">
-            <v>M</v>
-          </cell>
-          <cell r="K4">
-            <v>47</v>
-          </cell>
-          <cell r="L4">
-            <v>28</v>
-          </cell>
-          <cell r="M4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5" t="str">
-            <v>L</v>
-          </cell>
-          <cell r="K5">
-            <v>20</v>
-          </cell>
-          <cell r="L5">
-            <v>27</v>
-          </cell>
-          <cell r="M5">
-            <v>27</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="F2" t="str">
-            <v>t = 𝑓(L)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>1.3610558365817524</v>
-          </cell>
-          <cell r="E3">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>2.2291257182786146</v>
-          </cell>
-          <cell r="E4">
-            <v>0.46899999999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>2.4437219585871164</v>
-          </cell>
-          <cell r="E5">
-            <v>0.42199999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>2.6746962496154434</v>
-          </cell>
-          <cell r="E6">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>2.7364260203259771</v>
-          </cell>
-          <cell r="E7">
-            <v>0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>2.8918759706528143</v>
-          </cell>
-          <cell r="E8">
-            <v>0.44750000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>2.954511492356906</v>
-          </cell>
-          <cell r="E9">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>3.0362354200472272</v>
-          </cell>
-          <cell r="E10">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>3.0401773019832694</v>
-          </cell>
-          <cell r="E11">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>3.0437996971166115</v>
-          </cell>
-          <cell r="E12">
-            <v>0.436</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>3.0540548639419152</v>
-          </cell>
-          <cell r="E13">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>3.168022413121093</v>
-          </cell>
-          <cell r="E14">
-            <v>0.55300000000000005</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>3.1689513053664067</v>
-          </cell>
-          <cell r="E15">
-            <v>0.45200000000000001</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>3.2004053194259794</v>
-          </cell>
-          <cell r="E16">
-            <v>0.433</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>3.2072543293491194</v>
-          </cell>
-          <cell r="E17">
-            <v>0.439</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>3.2708114419822603</v>
-          </cell>
-          <cell r="E18">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>3.3274551574824494</v>
-          </cell>
-          <cell r="E19">
-            <v>0.53900000000000003</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>3.3575719222709162</v>
-          </cell>
-          <cell r="E20">
-            <v>0.375</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>3.3962241725007543</v>
-          </cell>
-          <cell r="E21">
-            <v>0.44500000000000001</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>3.4269775052524092</v>
-          </cell>
-          <cell r="E22">
-            <v>0.45800000000000002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>3.5356369789885709</v>
-          </cell>
-          <cell r="E23">
-            <v>0.49299999999999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>3.5995643166607585</v>
-          </cell>
-          <cell r="E24">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>3.7025797561023834</v>
-          </cell>
-          <cell r="E25">
-            <v>0.44900000000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>3.7377439219630704</v>
-          </cell>
-          <cell r="E26">
-            <v>0.51800000000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>3.7492139835943572</v>
-          </cell>
-          <cell r="E27">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>3.7870082748972034</v>
-          </cell>
-          <cell r="E28">
-            <v>0.50600000000000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>3.789153020747706</v>
-          </cell>
-          <cell r="E29">
-            <v>0.45300000000000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>3.8286475655613081</v>
-          </cell>
-          <cell r="E30">
-            <v>0.46600000000000003</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>3.9007959475716447</v>
-          </cell>
-          <cell r="E31">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>3.9280324867266141</v>
-          </cell>
-          <cell r="E32">
-            <v>0.48499999999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>3.9439100073669562</v>
-          </cell>
-          <cell r="E33">
-            <v>0.45900000000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>3.9696500546698918</v>
-          </cell>
-          <cell r="E34">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>3.9930880390931285</v>
-          </cell>
-          <cell r="E35">
-            <v>0.443</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>4.0110421873456508</v>
-          </cell>
-          <cell r="E36">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>4.012502683499215</v>
-          </cell>
-          <cell r="E37">
-            <v>0.621</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>4.066769246830658</v>
-          </cell>
-          <cell r="E38">
-            <v>0.379</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>4.0961129410557149</v>
-          </cell>
-          <cell r="E39">
-            <v>0.48799999999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>4.1281561340760096</v>
-          </cell>
-          <cell r="E40">
-            <v>0.55700000000000005</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>4.1328919274434623</v>
-          </cell>
-          <cell r="E41">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>4.1354464758581209</v>
-          </cell>
-          <cell r="E42">
-            <v>0.52700000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>4.1644968300958123</v>
-          </cell>
-          <cell r="E43">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>4.1935826776435272</v>
-          </cell>
-          <cell r="E44">
-            <v>0.442</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>4.2038086330521107</v>
-          </cell>
-          <cell r="E45">
-            <v>0.45700000000000002</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>4.255695714365749</v>
-          </cell>
-          <cell r="E46">
-            <v>0.51</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>4.2829383934042768</v>
-          </cell>
-          <cell r="E47">
-            <v>0.51100000000000001</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>4.3431775587797716</v>
-          </cell>
-          <cell r="E48">
-            <v>0.47299999999999998</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>4.406862511311302</v>
-          </cell>
-          <cell r="E49">
-            <v>0.43099999999999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>4.4157959009735821</v>
-          </cell>
-          <cell r="E50">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>4.4212150789617173</v>
-          </cell>
-          <cell r="E51">
-            <v>0.54100000000000004</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>4.4241386093215374</v>
-          </cell>
-          <cell r="E52">
-            <v>0.40600000000000003</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>4.4606778618607805</v>
-          </cell>
-          <cell r="E53">
-            <v>0.52900000000000003</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>4.5106357853698462</v>
-          </cell>
-          <cell r="E54">
-            <v>0.46600000000000003</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>4.5501390617117901</v>
-          </cell>
-          <cell r="E55">
-            <v>0.48299999999999998</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>4.5797757086498967</v>
-          </cell>
-          <cell r="E56">
-            <v>0.501</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>4.6450712955373179</v>
-          </cell>
-          <cell r="E57">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>4.6502600313952644</v>
-          </cell>
-          <cell r="E58">
-            <v>0.46800000000000003</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>4.670782023987357</v>
-          </cell>
-          <cell r="E59">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>4.6717138492640053</v>
-          </cell>
-          <cell r="E60">
-            <v>0.39800000000000002</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>4.7063365244340707</v>
-          </cell>
-          <cell r="E61">
-            <v>0.36399999999999999</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>4.7724794181372339</v>
-          </cell>
-          <cell r="E62">
-            <v>0.51400000000000001</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>4.7942604058611771</v>
-          </cell>
-          <cell r="E63">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>4.8121172703560564</v>
-          </cell>
-          <cell r="E64">
-            <v>0.51900000000000002</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>4.8574518248908021</v>
-          </cell>
-          <cell r="E65">
-            <v>0.47099999999999997</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>4.8861691536095515</v>
-          </cell>
-          <cell r="E66">
-            <v>0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>4.894467024369427</v>
-          </cell>
-          <cell r="E67">
-            <v>0.376</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>4.9704358016183088</v>
-          </cell>
-          <cell r="E68">
-            <v>0.45900000000000002</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>5.0052293830451111</v>
-          </cell>
-          <cell r="E69">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>5.0372606982584704</v>
-          </cell>
-          <cell r="E70">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>5.1110146951484667</v>
-          </cell>
-          <cell r="E71">
-            <v>0.438</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>5.1874393198602542</v>
-          </cell>
-          <cell r="E72">
-            <v>0.42499999999999999</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>5.2634222676918059</v>
-          </cell>
-          <cell r="E73">
-            <v>0.48799999999999999</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>5.6392451946761533</v>
-          </cell>
-          <cell r="E74">
-            <v>0.48399999999999999</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>5.6747766069205259</v>
-          </cell>
-          <cell r="E75">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>5.7648856890442497</v>
-          </cell>
-          <cell r="E76">
-            <v>0.42</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77">
-            <v>5.848393024064273</v>
-          </cell>
-          <cell r="E77">
-            <v>0.442</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78">
-            <v>5.8725932689034357</v>
-          </cell>
-          <cell r="E78">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79">
-            <v>5.9509442614804868</v>
-          </cell>
-          <cell r="E79">
-            <v>0.43099999999999999</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80">
-            <v>5.9661059028449284</v>
-          </cell>
-          <cell r="E80">
-            <v>0.45600000000000002</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81">
-            <v>6.0403043623078121</v>
-          </cell>
-          <cell r="E81">
-            <v>0.51300000000000001</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>6.2542530169027897</v>
-          </cell>
-          <cell r="E82">
-            <v>0.624</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83">
-            <v>7.2404944095118591</v>
-          </cell>
-          <cell r="E83">
-            <v>0.47499999999999998</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84">
-            <v>7.2836596199072723</v>
-          </cell>
-          <cell r="E84">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85">
-            <v>7.3267967228701929</v>
-          </cell>
-          <cell r="E85">
-            <v>0.60399999999999998</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>7.5547302540519432</v>
-          </cell>
-          <cell r="E86">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="F2" t="str">
-            <v>t = 𝑓(m)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>0.4</v>
-          </cell>
-          <cell r="E3">
-            <v>0.36399999999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.4</v>
-          </cell>
-          <cell r="E4">
-            <v>0.375</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.4</v>
-          </cell>
-          <cell r="E5">
-            <v>0.376</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0.4</v>
-          </cell>
-          <cell r="E6">
-            <v>0.379</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.3</v>
-          </cell>
-          <cell r="E7">
-            <v>0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.5</v>
-          </cell>
-          <cell r="E8">
-            <v>0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>0.3</v>
-          </cell>
-          <cell r="E9">
-            <v>0.39800000000000002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>0.5</v>
-          </cell>
-          <cell r="E10">
-            <v>0.40600000000000003</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>0.3</v>
-          </cell>
-          <cell r="E11">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>0.3</v>
-          </cell>
-          <cell r="E12">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0.5</v>
-          </cell>
-          <cell r="E13">
-            <v>0.42</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>0.2</v>
-          </cell>
-          <cell r="E14">
-            <v>0.42199999999999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>0.6</v>
-          </cell>
-          <cell r="E15">
-            <v>0.42499999999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>0.1</v>
-          </cell>
-          <cell r="E16">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>0.4</v>
-          </cell>
-          <cell r="E17">
-            <v>0.43099999999999999</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>0.6</v>
-          </cell>
-          <cell r="E18">
-            <v>0.43099999999999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>0.4</v>
-          </cell>
-          <cell r="E19">
-            <v>0.433</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>0.3</v>
-          </cell>
-          <cell r="E20">
-            <v>0.436</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>0.6</v>
-          </cell>
-          <cell r="E21">
-            <v>0.438</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>0.4</v>
-          </cell>
-          <cell r="E22">
-            <v>0.439</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0.6</v>
-          </cell>
-          <cell r="E23">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>0.5</v>
-          </cell>
-          <cell r="E24">
-            <v>0.442</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>0.5</v>
-          </cell>
-          <cell r="E25">
-            <v>0.442</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>0.4</v>
-          </cell>
-          <cell r="E26">
-            <v>0.443</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>0.3</v>
-          </cell>
-          <cell r="E27">
-            <v>0.44500000000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>0.3</v>
-          </cell>
-          <cell r="E28">
-            <v>0.44750000000000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>0.5</v>
-          </cell>
-          <cell r="E29">
-            <v>0.44900000000000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>0.5</v>
-          </cell>
-          <cell r="E30">
-            <v>0.45200000000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>0.3</v>
-          </cell>
-          <cell r="E31">
-            <v>0.45300000000000001</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>0.6</v>
-          </cell>
-          <cell r="E32">
-            <v>0.45600000000000002</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>0.6</v>
-          </cell>
-          <cell r="E33">
-            <v>0.45700000000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>0.4</v>
-          </cell>
-          <cell r="E34">
-            <v>0.45800000000000002</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>0.4</v>
-          </cell>
-          <cell r="E35">
-            <v>0.45900000000000002</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>0.4</v>
-          </cell>
-          <cell r="E36">
-            <v>0.45900000000000002</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>0.3</v>
-          </cell>
-          <cell r="E37">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>0.5</v>
-          </cell>
-          <cell r="E38">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>0.8</v>
-          </cell>
-          <cell r="E39">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>0.5</v>
-          </cell>
-          <cell r="E40">
-            <v>0.46600000000000003</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>0.6</v>
-          </cell>
-          <cell r="E41">
-            <v>0.46600000000000003</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>0.4</v>
-          </cell>
-          <cell r="E42">
-            <v>0.46800000000000003</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>0.2</v>
-          </cell>
-          <cell r="E43">
-            <v>0.46899999999999997</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>0.3</v>
-          </cell>
-          <cell r="E44">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>0.4</v>
-          </cell>
-          <cell r="E45">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>0.5</v>
-          </cell>
-          <cell r="E46">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>0.6</v>
-          </cell>
-          <cell r="E47">
-            <v>0.47099999999999997</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>0.3</v>
-          </cell>
-          <cell r="E48">
-            <v>0.47299999999999998</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>0.5</v>
-          </cell>
-          <cell r="E49">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>0.5</v>
-          </cell>
-          <cell r="E50">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>0.6</v>
-          </cell>
-          <cell r="E51">
-            <v>0.47499999999999998</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>0.4</v>
-          </cell>
-          <cell r="E52">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>0.5</v>
-          </cell>
-          <cell r="E53">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>0.6</v>
-          </cell>
-          <cell r="E54">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>0.4</v>
-          </cell>
-          <cell r="E55">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>0.4</v>
-          </cell>
-          <cell r="E56">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>0.4</v>
-          </cell>
-          <cell r="E57">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>0.7</v>
-          </cell>
-          <cell r="E58">
-            <v>0.48299999999999998</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>0.6</v>
-          </cell>
-          <cell r="E59">
-            <v>0.48399999999999999</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>0.5</v>
-          </cell>
-          <cell r="E60">
-            <v>0.48499999999999999</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>0.4</v>
-          </cell>
-          <cell r="E61">
-            <v>0.48799999999999999</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>0.5</v>
-          </cell>
-          <cell r="E62">
-            <v>0.48799999999999999</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>0.4</v>
-          </cell>
-          <cell r="E63">
-            <v>0.49299999999999999</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>0.5</v>
-          </cell>
-          <cell r="E64">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>0.4</v>
-          </cell>
-          <cell r="E65">
-            <v>0.501</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>0.5</v>
-          </cell>
-          <cell r="E66">
-            <v>0.50600000000000001</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>0.4</v>
-          </cell>
-          <cell r="E67">
-            <v>0.51</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>0.6</v>
-          </cell>
-          <cell r="E68">
-            <v>0.51100000000000001</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>0.7</v>
-          </cell>
-          <cell r="E69">
-            <v>0.51300000000000001</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>0.6</v>
-          </cell>
-          <cell r="E70">
-            <v>0.51400000000000001</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>0.4</v>
-          </cell>
-          <cell r="E71">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>0.4</v>
-          </cell>
-          <cell r="E72">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>0.7</v>
-          </cell>
-          <cell r="E73">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>0.4</v>
-          </cell>
-          <cell r="E74">
-            <v>0.51800000000000002</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>0.6</v>
-          </cell>
-          <cell r="E75">
-            <v>0.51900000000000002</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>0.4</v>
-          </cell>
-          <cell r="E76">
-            <v>0.52700000000000002</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77">
-            <v>0.7</v>
-          </cell>
-          <cell r="E77">
-            <v>0.52900000000000003</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78">
-            <v>0.5</v>
-          </cell>
-          <cell r="E78">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79">
-            <v>0.3</v>
-          </cell>
-          <cell r="E79">
-            <v>0.53900000000000003</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80">
-            <v>0.5</v>
-          </cell>
-          <cell r="E80">
-            <v>0.54100000000000004</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81">
-            <v>0.5</v>
-          </cell>
-          <cell r="E81">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>0.3</v>
-          </cell>
-          <cell r="E82">
-            <v>0.55300000000000005</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83">
-            <v>0.4</v>
-          </cell>
-          <cell r="E83">
-            <v>0.55700000000000005</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84">
-            <v>0.7</v>
-          </cell>
-          <cell r="E84">
-            <v>0.60399999999999998</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85">
-            <v>0.5</v>
-          </cell>
-          <cell r="E85">
-            <v>0.621</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>0.6</v>
-          </cell>
-          <cell r="E86">
-            <v>0.624</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="L2" t="str">
-            <v>t = 𝑓(b)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>45.104956880000003</v>
-          </cell>
-          <cell r="D3">
-            <v>19.41453533</v>
-          </cell>
-          <cell r="F3">
-            <v>0.39800000000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>50.02547852</v>
-          </cell>
-          <cell r="D4">
-            <v>17.710400230000001</v>
-          </cell>
-          <cell r="F4">
-            <v>0.47299999999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>48.301828579999999</v>
-          </cell>
-          <cell r="D5">
-            <v>19.806350930000001</v>
-          </cell>
-          <cell r="F5">
-            <v>0.43</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>52.039158950000001</v>
-          </cell>
-          <cell r="D6">
-            <v>19.519087580000001</v>
-          </cell>
-          <cell r="F6">
-            <v>0.45300000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>53.450201389999997</v>
-          </cell>
-          <cell r="D7">
-            <v>19.20213996</v>
-          </cell>
-          <cell r="F7">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>52.21334693</v>
-          </cell>
-          <cell r="D8">
-            <v>20.84662719</v>
-          </cell>
-          <cell r="F8">
-            <v>0.45900000000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>55.336607649999998</v>
-          </cell>
-          <cell r="D9">
-            <v>19.269757519999999</v>
-          </cell>
-          <cell r="F9">
-            <v>0.376</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>51.683831099999999</v>
-          </cell>
-          <cell r="D10">
-            <v>20.009116330000001</v>
-          </cell>
-          <cell r="F10">
-            <v>0.42199999999999999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>53.709470430000003</v>
-          </cell>
-          <cell r="D11">
-            <v>20.494740360000002</v>
-          </cell>
-          <cell r="F11">
-            <v>0.47499999999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>52.423031039999998</v>
-          </cell>
-          <cell r="D12">
-            <v>21.229999979999999</v>
-          </cell>
-          <cell r="F12">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>51.887492109999997</v>
-          </cell>
-          <cell r="D13">
-            <v>22.175329519999998</v>
-          </cell>
-          <cell r="F13">
-            <v>0.36399999999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>49.967565999999998</v>
-          </cell>
-          <cell r="D14">
-            <v>22.285337470000002</v>
-          </cell>
-          <cell r="F14">
-            <v>0.442</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>53.642884649999999</v>
-          </cell>
-          <cell r="D15">
-            <v>21.331025650000001</v>
-          </cell>
-          <cell r="F15">
-            <v>0.46800000000000003</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>55.578320669999997</v>
-          </cell>
-          <cell r="D16">
-            <v>19.969545449999998</v>
-          </cell>
-          <cell r="F16">
-            <v>0.51700000000000002</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>t = 𝑓(c)</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>59.213153630000001</v>
-          </cell>
-          <cell r="D17">
-            <v>18.34600288</v>
-          </cell>
-          <cell r="F17">
-            <v>0.42</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>51.07267349</v>
-          </cell>
-          <cell r="D18">
-            <v>22.52203299</v>
-          </cell>
-          <cell r="F18">
-            <v>0.501</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>58.107452559999999</v>
-          </cell>
-          <cell r="D19">
-            <v>19.109597239999999</v>
-          </cell>
-          <cell r="F19">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>56.060978550000002</v>
-          </cell>
-          <cell r="D20">
-            <v>20.0536052</v>
-          </cell>
-          <cell r="F20">
-            <v>0.44500000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>49.997458020000003</v>
-          </cell>
-          <cell r="D21">
-            <v>25.179504000000001</v>
-          </cell>
-          <cell r="F21">
-            <v>0.46899999999999997</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>55.28530482</v>
-          </cell>
-          <cell r="D22">
-            <v>20.518319479999999</v>
-          </cell>
-          <cell r="F22">
-            <v>0.53900000000000003</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>58.625620519999998</v>
-          </cell>
-          <cell r="D23">
-            <v>22.05077361</v>
-          </cell>
-          <cell r="F23">
-            <v>0.43099999999999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>50.244893859999998</v>
-          </cell>
-          <cell r="D24">
-            <v>25.346974039999999</v>
-          </cell>
-          <cell r="F24">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>58.838548379999999</v>
-          </cell>
-          <cell r="D25">
-            <v>20.296107330000002</v>
-          </cell>
-          <cell r="F25">
-            <v>0.51</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>59.673597620000002</v>
-          </cell>
-          <cell r="D26">
-            <v>19.81942716</v>
-          </cell>
-          <cell r="F26">
-            <v>0.55300000000000005</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>56.294381440000002</v>
-          </cell>
-          <cell r="D27">
-            <v>21.16045677</v>
-          </cell>
-          <cell r="F27">
-            <v>0.48799999999999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>65.606135850000001</v>
-          </cell>
-          <cell r="D28">
-            <v>19.610823719999999</v>
-          </cell>
-          <cell r="F28">
-            <v>0.60399999999999998</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>59.120296660000001</v>
-          </cell>
-          <cell r="D29">
-            <v>20.89870342</v>
-          </cell>
-          <cell r="F29">
-            <v>0.624</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>58.120535769999996</v>
-          </cell>
-          <cell r="D30">
-            <v>21.401459240000001</v>
-          </cell>
-          <cell r="F30">
-            <v>0.52700000000000002</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>57.590985019999998</v>
-          </cell>
-          <cell r="D31">
-            <v>21.9677212</v>
-          </cell>
-          <cell r="F31">
-            <v>0.55700000000000005</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>54.087389260000002</v>
-          </cell>
-          <cell r="D32">
-            <v>26.992702560000001</v>
-          </cell>
-          <cell r="F32">
-            <v>0.48799999999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>55.399321190000002</v>
-          </cell>
-          <cell r="D33">
-            <v>24.702334990000001</v>
-          </cell>
-          <cell r="F33">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>51.313356470000002</v>
-          </cell>
-          <cell r="D34">
-            <v>26.100959379999999</v>
-          </cell>
-          <cell r="F34">
-            <v>0.379</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>58.901998650000003</v>
-          </cell>
-          <cell r="D35">
-            <v>21.888052200000001</v>
-          </cell>
-          <cell r="F35">
-            <v>0.436</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>57.330169179999999</v>
-          </cell>
-          <cell r="D36">
-            <v>22.241920539999999</v>
-          </cell>
-          <cell r="F36">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>61.022645799999999</v>
-          </cell>
-          <cell r="D37">
-            <v>20.37266352</v>
-          </cell>
-          <cell r="F37">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>62.70678771</v>
-          </cell>
-          <cell r="D38">
-            <v>20.03133545</v>
-          </cell>
-          <cell r="F38">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>62.928535480000001</v>
-          </cell>
-          <cell r="D39">
-            <v>20.780493580000002</v>
-          </cell>
-          <cell r="F39">
-            <v>0.443</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>61.48642083</v>
-          </cell>
-          <cell r="D40">
-            <v>21.171127250000001</v>
-          </cell>
-          <cell r="F40">
-            <v>0.45600000000000002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>68.926039360000004</v>
-          </cell>
-          <cell r="D41">
-            <v>19.02712794</v>
-          </cell>
-          <cell r="F41">
-            <v>0.43099999999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>63.05516368</v>
-          </cell>
-          <cell r="D42">
-            <v>20.824448220000001</v>
-          </cell>
-          <cell r="F42">
-            <v>0.45900000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>58.662226990000001</v>
-          </cell>
-          <cell r="D43">
-            <v>22.384278640000002</v>
-          </cell>
-          <cell r="F43">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>55.828151779999999</v>
-          </cell>
-          <cell r="D44">
-            <v>24.812590849999999</v>
-          </cell>
-          <cell r="F44">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>61.29023196</v>
-          </cell>
-          <cell r="D45">
-            <v>21.25493385</v>
-          </cell>
-          <cell r="F45">
-            <v>0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>60.635882619999997</v>
-          </cell>
-          <cell r="D46">
-            <v>20.464591710000001</v>
-          </cell>
-          <cell r="F46">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>55.648433019999999</v>
-          </cell>
-          <cell r="D47">
-            <v>24.125772659999999</v>
-          </cell>
-          <cell r="F47">
-            <v>0.44750000000000001</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>59.979193889999998</v>
-          </cell>
-          <cell r="D48">
-            <v>22.958660439999999</v>
-          </cell>
-          <cell r="F48">
-            <v>0.48399999999999999</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>59.61057332</v>
-          </cell>
-          <cell r="D49">
-            <v>22.82143507</v>
-          </cell>
-          <cell r="F49">
-            <v>0.51800000000000002</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>61.968094059999999</v>
-          </cell>
-          <cell r="D50">
-            <v>21.986914800000001</v>
-          </cell>
-          <cell r="F50">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>60.648124350000003</v>
-          </cell>
-          <cell r="D51">
-            <v>22.247919199999998</v>
-          </cell>
-          <cell r="F51">
-            <v>0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>64.493521310000006</v>
-          </cell>
-          <cell r="D52">
-            <v>22.33357114</v>
-          </cell>
-          <cell r="F52">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>60.472124200000003</v>
-          </cell>
-          <cell r="D53">
-            <v>24.232992530000001</v>
-          </cell>
-          <cell r="F53">
-            <v>0.46600000000000003</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>58.742765409999997</v>
-          </cell>
-          <cell r="D54">
-            <v>25.80899277</v>
-          </cell>
-          <cell r="F54">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>58.802109510000001</v>
-          </cell>
-          <cell r="D55">
-            <v>26.146429399999999</v>
-          </cell>
-          <cell r="F55">
-            <v>0.40600000000000003</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>63.453477239999998</v>
-          </cell>
-          <cell r="D56">
-            <v>22.894347719999999</v>
-          </cell>
-          <cell r="F56">
-            <v>0.54100000000000004</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>55.927126110000003</v>
-          </cell>
-          <cell r="D57">
-            <v>26.886526700000001</v>
-          </cell>
-          <cell r="F57">
-            <v>0.49299999999999999</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>61.567797249999998</v>
-          </cell>
-          <cell r="D58">
-            <v>25.140701279999998</v>
-          </cell>
-          <cell r="F58">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>64.170201430000006</v>
-          </cell>
-          <cell r="D59">
-            <v>22.907336659999999</v>
-          </cell>
-          <cell r="F59">
-            <v>0.42499999999999999</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>62.894848029999999</v>
-          </cell>
-          <cell r="D60">
-            <v>23.827620589999999</v>
-          </cell>
-          <cell r="F60">
-            <v>0.51300000000000001</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>60.889320609999999</v>
-          </cell>
-          <cell r="D61">
-            <v>24.847767489999999</v>
-          </cell>
-          <cell r="F61">
-            <v>0.45800000000000002</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>64.825975349999993</v>
-          </cell>
-          <cell r="D62">
-            <v>23.395778459999999</v>
-          </cell>
-          <cell r="F62">
-            <v>0.438</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>61.121899470000002</v>
-          </cell>
-          <cell r="D63">
-            <v>24.832212179999999</v>
-          </cell>
-          <cell r="F63">
-            <v>0.375</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>61.626219550000002</v>
-          </cell>
-          <cell r="D64">
-            <v>24.346188349999998</v>
-          </cell>
-          <cell r="F64">
-            <v>0.442</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>60.992072909999997</v>
-          </cell>
-          <cell r="D65">
-            <v>25.908833040000001</v>
-          </cell>
-          <cell r="F65">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>64.608019519999999</v>
-          </cell>
-          <cell r="D66">
-            <v>24.147801479999998</v>
-          </cell>
-          <cell r="F66">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>63.01222336</v>
-          </cell>
-          <cell r="D67">
-            <v>24.89640095</v>
-          </cell>
-          <cell r="F67">
-            <v>0.51700000000000002</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>63.843808889999998</v>
-          </cell>
-          <cell r="D68">
-            <v>25.913962269999999</v>
-          </cell>
-          <cell r="F68">
-            <v>0.47099999999999997</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>66.864931839999997</v>
-          </cell>
-          <cell r="D69">
-            <v>23.298256649999999</v>
-          </cell>
-          <cell r="F69">
-            <v>0.621</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>66.061817230000003</v>
-          </cell>
-          <cell r="D70">
-            <v>24.957359929999999</v>
-          </cell>
-          <cell r="F70">
-            <v>0.51900000000000002</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>63.866420820000002</v>
-          </cell>
-          <cell r="D71">
-            <v>26.152300610000001</v>
-          </cell>
-          <cell r="F71">
-            <v>0.439</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>65.456686210000001</v>
-          </cell>
-          <cell r="D72">
-            <v>24.3477788</v>
-          </cell>
-          <cell r="F72">
-            <v>0.433</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>72.835431290000002</v>
-          </cell>
-          <cell r="D73">
-            <v>22.428352</v>
-          </cell>
-          <cell r="F73">
-            <v>0.51400000000000001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>67.751594670000003</v>
-          </cell>
-          <cell r="D74">
-            <v>23.318892309999999</v>
-          </cell>
-          <cell r="F74">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>64.350489330000002</v>
-          </cell>
-          <cell r="D75">
-            <v>25.62139685</v>
-          </cell>
-          <cell r="F75">
-            <v>0.48499999999999999</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>68.099411970000006</v>
-          </cell>
-          <cell r="D76">
-            <v>24.893639050000001</v>
-          </cell>
-          <cell r="F76">
-            <v>0.48</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>67.572598679999999</v>
-          </cell>
-          <cell r="D77">
-            <v>24.453595029999999</v>
-          </cell>
-          <cell r="F77">
-            <v>0.50600000000000001</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>63.371409479999997</v>
-          </cell>
-          <cell r="D78">
-            <v>26.830176689999998</v>
-          </cell>
-          <cell r="F78">
-            <v>0.44900000000000001</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>68.599611899999999</v>
-          </cell>
-          <cell r="D79">
-            <v>26.243106229999999</v>
-          </cell>
-          <cell r="F79">
-            <v>0.46300000000000002</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>69.816661719999999</v>
-          </cell>
-          <cell r="D80">
-            <v>25.269625250000001</v>
-          </cell>
-          <cell r="F80">
-            <v>0.51100000000000001</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>68.965620709999996</v>
-          </cell>
-          <cell r="D81">
-            <v>26.242538840000002</v>
-          </cell>
-          <cell r="F81">
-            <v>0.45700000000000002</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>67.947015379999996</v>
-          </cell>
-          <cell r="D82">
-            <v>29.286507660000002</v>
-          </cell>
-          <cell r="F82">
-            <v>0.48299999999999998</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>72.275133069999995</v>
-          </cell>
-          <cell r="D83">
-            <v>27.274993800000001</v>
-          </cell>
-          <cell r="F83">
-            <v>0.46600000000000003</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>69.936837359999998</v>
-          </cell>
-          <cell r="D84">
-            <v>29.294178809999998</v>
-          </cell>
-          <cell r="F84">
-            <v>0.52900000000000003</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>68.841331909999994</v>
-          </cell>
-          <cell r="D85">
-            <v>29.215817439999999</v>
-          </cell>
-          <cell r="F85">
-            <v>0.45200000000000001</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>72.912980860000005</v>
-          </cell>
-          <cell r="D86">
-            <v>27.675117780000001</v>
-          </cell>
-          <cell r="F86">
-            <v>0.47599999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7552,55 +5190,55 @@
     <tableColumn id="1" xr3:uid="{4F39DB47-9AEA-4CF9-91C2-8BF77F720469}" name="Num" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{E7D0B6C1-B0E5-472A-BEE1-85FDEE41A7FA}" name="id" dataDxfId="43"/>
     <tableColumn id="3" xr3:uid="{63134CDC-11EC-45EF-822F-F73E24FD15DB}" name="Mass [g]" dataDxfId="42" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="17" xr3:uid="{F33A7560-F44C-4419-9566-FC121DC9CF4A}" name="Mass [L,M,S]" dataDxfId="31" dataCellStyle="20% - Accent1">
+    <tableColumn id="17" xr3:uid="{F33A7560-F44C-4419-9566-FC121DC9CF4A}" name="Mass [L,M,S]" dataDxfId="41" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table156[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD5AEC8A-832A-407E-B092-B483D27F65EC}" name="Area [mm^2]" dataDxfId="32" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" xr3:uid="{80928843-3B8E-4E00-9BB2-3CB4E51EAAD3}" name="Area [mm^2] Rounded" dataDxfId="30" dataCellStyle="20% - Accent1">
+    <tableColumn id="4" xr3:uid="{BD5AEC8A-832A-407E-B092-B483D27F65EC}" name="Area [mm^2]" dataDxfId="40" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{80928843-3B8E-4E00-9BB2-3CB4E51EAAD3}" name="Area [mm^2] Rounded" dataDxfId="39" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Area '[mm^2']]], 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{488B557D-7909-401A-A5D7-10BD93B08E9B}" name="Area [L,M,S]" dataDxfId="29" dataCellStyle="20% - Accent1">
+    <tableColumn id="21" xr3:uid="{488B557D-7909-401A-A5D7-10BD93B08E9B}" name="Area [L,M,S]" dataDxfId="38" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Area '[mm^2'] Rounded]]&gt;$AE$53, "L", (IF(Table156[[#This Row],[Area '[mm^2'] Rounded]]&gt;$AE$55, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{803E9B32-8041-46B9-BF42-48214DC67C26}" name="Loading: mg/A [N/m^2]" dataDxfId="41" dataCellStyle="20% - Accent1">
+    <tableColumn id="15" xr3:uid="{803E9B32-8041-46B9-BF42-48214DC67C26}" name="Loading: mg/A [N/m^2]" dataDxfId="37" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(Table156[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table156[[#This Row],[Area '[mm^2']]]*0.000001)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{423BB4F9-DA2A-4A71-8D56-2F0CE10C71EB}" name="Loading [N/m^2] Rounded" dataDxfId="28" dataCellStyle="20% - Accent1">
+    <tableColumn id="22" xr3:uid="{423BB4F9-DA2A-4A71-8D56-2F0CE10C71EB}" name="Loading [N/m^2] Rounded" dataDxfId="36" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Loading: mg/A '[N/m^2']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{08CDF66C-CB66-4E96-945D-B834C0B6FBA2}" name="Loading [L,M,S]" dataDxfId="27" dataCellStyle="20% - Accent1">
+    <tableColumn id="18" xr3:uid="{08CDF66C-CB66-4E96-945D-B834C0B6FBA2}" name="Loading [L,M,S]" dataDxfId="35" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Loading '[N/m^2'] Rounded]]&gt;$AE$37, "L", (IF(Table156[[#This Row],[Loading '[N/m^2'] Rounded]]&gt;$AE$39, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{15862C6A-3975-48AF-ACC0-1ABA3ABD7B75}" name="Span: b [mm]" dataDxfId="40" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="23" xr3:uid="{85241F74-09F8-4D8C-8406-1D0565634FC9}" name="Span: b [mm] Rounded" dataDxfId="26" dataCellStyle="20% - Accent1">
+    <tableColumn id="6" xr3:uid="{15862C6A-3975-48AF-ACC0-1ABA3ABD7B75}" name="Span: b [mm]" dataDxfId="34" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="23" xr3:uid="{85241F74-09F8-4D8C-8406-1D0565634FC9}" name="Span: b [mm] Rounded" dataDxfId="33" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Span: b '[mm']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8717B2E8-88BB-4EED-9328-0373DB83A24C}" name="Span [L,M,S]" dataDxfId="24" dataCellStyle="20% - Accent1">
+    <tableColumn id="19" xr3:uid="{8717B2E8-88BB-4EED-9328-0373DB83A24C}" name="Span [L,M,S]" dataDxfId="32" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Span: b '[mm'] Rounded]]&gt;63, "L", (IF(Table156[[#This Row],[Span: b '[mm'] Rounded]]&gt;58, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A2EF55C7-D74D-4B1F-A4BF-04AFD6EE7EF8}" name="Chord: c [mm]" dataDxfId="39" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="24" xr3:uid="{B90185AC-7252-4A87-93C3-28C79AA0AB91}" name="Chord: c [mm] Rounded" dataDxfId="25" dataCellStyle="20% - Accent1">
+    <tableColumn id="7" xr3:uid="{A2EF55C7-D74D-4B1F-A4BF-04AFD6EE7EF8}" name="Chord: c [mm]" dataDxfId="31" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="24" xr3:uid="{B90185AC-7252-4A87-93C3-28C79AA0AB91}" name="Chord: c [mm] Rounded" dataDxfId="30" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Chord: c '[mm']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{19F30A62-86CD-4090-9FC5-8ABB2CFA47B0}" name="Chord [L,M,S]" dataDxfId="23" dataCellStyle="20% - Accent1">
+    <tableColumn id="20" xr3:uid="{19F30A62-86CD-4090-9FC5-8ABB2CFA47B0}" name="Chord [L,M,S]" dataDxfId="29" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Chord: c '[mm'] Rounded]]&gt;24.5, "L", (IF(Table156[[#This Row],[Chord: c '[mm'] Rounded]]&gt;21, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{08B57848-CF58-4831-B529-4B940D648C81}" name="Aspect Ratio = b^2/A" dataDxfId="38" dataCellStyle="20% - Accent1">
+    <tableColumn id="9" xr3:uid="{08B57848-CF58-4831-B529-4B940D648C81}" name="Aspect Ratio = b^2/A" dataDxfId="28" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(K4^2)/E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{046C195E-CF11-4B31-94E7-9E5D67044409}" name="Aspect Ratio = b^2/A Rounded" dataDxfId="22" dataCellStyle="20% - Accent1">
+    <tableColumn id="25" xr3:uid="{046C195E-CF11-4B31-94E7-9E5D67044409}" name="Aspect Ratio = b^2/A Rounded" dataDxfId="27" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Aspect Ratio = b^2/A]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{667800F5-CAB8-4E53-A0D2-F1E4892A4888}" name="Aspect Ratio[L,M,S]" dataDxfId="21" dataCellStyle="20% - Accent1">
+    <tableColumn id="8" xr3:uid="{667800F5-CAB8-4E53-A0D2-F1E4892A4888}" name="Aspect Ratio[L,M,S]" dataDxfId="26" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Aspect Ratio = b^2/A Rounded]]&gt;$AE$21, "L", (IF(Table156[[#This Row],[Aspect Ratio = b^2/A Rounded]]&gt;$AE$23, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{96D39549-A53E-409A-A985-AF21C6FD140C}" name="Transition Time: t [s]" dataDxfId="37" dataCellStyle="20% - Accent3"/>
-    <tableColumn id="16" xr3:uid="{1E13852D-315C-4703-88AB-A4FF2A94CC9C}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="36" dataCellStyle="20% - Accent3">
+    <tableColumn id="11" xr3:uid="{96D39549-A53E-409A-A985-AF21C6FD140C}" name="Transition Time: t [s]" dataDxfId="25" dataCellStyle="20% - Accent3"/>
+    <tableColumn id="16" xr3:uid="{1E13852D-315C-4703-88AB-A4FF2A94CC9C}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="24" dataCellStyle="20% - Accent3">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Transition Time: t '[s']]]&gt;$AE$5, "SLOW", (IF(Table156[[#This Row],[Transition Time: t '[s']]]&gt;$AE$7, "AVERAGE", "FAST")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{1464CC48-6A34-4E88-9E75-70DD3FA149B7}" name="1" dataDxfId="35" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="13" xr3:uid="{FA24F7E5-53D2-4912-A65F-7044CD6213CA}" name="2" dataDxfId="34" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="14" xr3:uid="{10A0C0C4-3FE9-4D0B-8D57-9ED26B8333FC}" name="3" dataDxfId="33" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="12" xr3:uid="{1464CC48-6A34-4E88-9E75-70DD3FA149B7}" name="1" dataDxfId="23" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="13" xr3:uid="{FA24F7E5-53D2-4912-A65F-7044CD6213CA}" name="2" dataDxfId="22" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="14" xr3:uid="{10A0C0C4-3FE9-4D0B-8D57-9ED26B8333FC}" name="3" dataDxfId="21" dataCellStyle="20% - Accent5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7608,7 +5246,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5AC6ABD-4DAE-48F0-AFE3-0DD771DD2CAB}" name="Table1567" displayName="Table1567" ref="A3:S87" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
-  <autoFilter ref="A3:S87" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}"/>
+  <autoFilter ref="A3:S87" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="FAST"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:S87">
     <sortCondition ref="B3:B87"/>
   </sortState>
@@ -7640,16 +5284,16 @@
     <tableColumn id="9" xr3:uid="{0360C153-9D20-4787-B5F0-C207DEE37844}" name="Aspect Ratio = b^2/A" dataDxfId="6" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP((Table1567[[#This Row],[Span: b '[mm']]]^2)/Table1567[[#This Row],[Area '[mm^2']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{217BF731-A5BF-4977-910D-E50A20EFB45F}" name="Aspect Ratio[L,M,S]" dataDxfId="0" dataCellStyle="20% - Accent1">
+    <tableColumn id="8" xr3:uid="{217BF731-A5BF-4977-910D-E50A20EFB45F}" name="Aspect Ratio[L,M,S]" dataDxfId="5" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table1567[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AFA51A67-18E5-4684-807C-2878F2065737}" name="Transition Time: t [s]" dataDxfId="5" dataCellStyle="20% - Accent3"/>
-    <tableColumn id="16" xr3:uid="{8201CA0D-C85F-4610-8456-33A3C49BC0DC}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="4" dataCellStyle="20% - Accent3">
+    <tableColumn id="11" xr3:uid="{AFA51A67-18E5-4684-807C-2878F2065737}" name="Transition Time: t [s]" dataDxfId="4" dataCellStyle="20% - Accent3"/>
+    <tableColumn id="16" xr3:uid="{8201CA0D-C85F-4610-8456-33A3C49BC0DC}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="3" dataCellStyle="20% - Accent3">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table1567[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5967FC1A-A724-4C8F-98B0-A43CA7E8288D}" name="1" dataDxfId="3" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="13" xr3:uid="{4D5CC357-0393-4B28-B2E4-00A074AC3EFD}" name="2" dataDxfId="2" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="14" xr3:uid="{3CFCF80A-282E-4614-BC43-A6237FE1CDF9}" name="3" dataDxfId="1" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="12" xr3:uid="{5967FC1A-A724-4C8F-98B0-A43CA7E8288D}" name="1" dataDxfId="2" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="13" xr3:uid="{4D5CC357-0393-4B28-B2E4-00A074AC3EFD}" name="2" dataDxfId="1" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="14" xr3:uid="{3CFCF80A-282E-4614-BC43-A6237FE1CDF9}" name="3" dataDxfId="0" dataCellStyle="20% - Accent5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7974,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE7E1BF-C345-41B2-A1E7-99751C84928F}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14002,7 +11646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68552E6A-184C-40A9-9BC4-F9CCBA2B8C3E}">
   <dimension ref="A1:AM86"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -20299,10 +17943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6268479-2E0E-4ACF-85FE-CD176DDA1192}">
-  <dimension ref="A1:AQ87"/>
+  <dimension ref="A1:AQ113"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20313,7 +17957,7 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="26.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
@@ -26157,7 +23801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>70</v>
       </c>
@@ -26320,6 +23964,10 @@
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
+      <c r="Z67" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA67" s="24"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -26402,6 +24050,8 @@
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -26484,6 +24134,12 @@
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
+      <c r="Z69" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA69" s="22">
+        <v>0.45952380952380945</v>
+      </c>
     </row>
     <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -26566,6 +24222,12 @@
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
+      <c r="Z70" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA70" s="22">
+        <v>1.4283323571232524E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -26654,6 +24316,12 @@
       <c r="X71" s="9">
         <v>0.435</v>
       </c>
+      <c r="Z71" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA71" s="22">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -26736,6 +24404,12 @@
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
+      <c r="Z72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA72" s="22">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -26818,6 +24492,12 @@
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
+      <c r="Z73" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA73" s="22">
+        <v>0.13090882288144001</v>
+      </c>
     </row>
     <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -26900,6 +24580,12 @@
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
+      <c r="Z74" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA74" s="22">
+        <v>1.7137119908204233E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -26982,6 +24668,12 @@
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
+      <c r="Z75" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA75" s="22">
+        <v>1.1583715789136306E-3</v>
+      </c>
     </row>
     <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -27064,6 +24756,12 @@
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
+      <c r="Z76" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA76" s="22">
+        <v>6.7602249818898591E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -27146,6 +24844,12 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
+      <c r="Z77" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA77" s="22">
+        <v>0.70000000000000007</v>
+      </c>
     </row>
     <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -27228,6 +24932,12 @@
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
+      <c r="Z78" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA78" s="22">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -27316,6 +25026,12 @@
       <c r="X79" s="9">
         <v>0.33700000000000002</v>
       </c>
+      <c r="Z79" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA79" s="22">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -27398,8 +25114,14 @@
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
-    </row>
-    <row r="81" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z80" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA80" s="22">
+        <v>38.599999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>88</v>
       </c>
@@ -27480,8 +25202,14 @@
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
-    </row>
-    <row r="82" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z81" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA81" s="23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>89</v>
       </c>
@@ -27563,7 +25291,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>90</v>
       </c>
@@ -27644,8 +25372,12 @@
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
-    </row>
-    <row r="84" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z83" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA83" s="24"/>
+    </row>
+    <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>91</v>
       </c>
@@ -27726,8 +25458,10 @@
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
-    </row>
-    <row r="85" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+    </row>
+    <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>93</v>
       </c>
@@ -27808,8 +25542,14 @@
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
-    </row>
-    <row r="86" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z85" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA85" s="22">
+        <v>60.095833333333381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>94</v>
       </c>
@@ -27890,8 +25630,14 @@
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
-    </row>
-    <row r="87" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z86" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA86" s="22">
+        <v>0.6749370512780638</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>96</v>
       </c>
@@ -27972,15 +25718,216 @@
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
+      <c r="Z87" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA87" s="22">
+        <v>60.56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z88" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA88" s="22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z89" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA89" s="22">
+        <v>6.1859002536240366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z90" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA90" s="22">
+        <v>38.265361947785919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z91" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA91" s="22">
+        <v>-0.51270339726348935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z92" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA92" s="22">
+        <v>-4.9297075627241761E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z93" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA93" s="22">
+        <v>27.810000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z94" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA94" s="22">
+        <v>45.11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z95" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA95" s="22">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z96" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA96" s="22">
+        <v>5048.0500000000038</v>
+      </c>
+    </row>
+    <row r="97" spans="26:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z97" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA97" s="23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="26:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z99" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA99" s="24"/>
+    </row>
+    <row r="100" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+    </row>
+    <row r="101" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z101" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA101" s="22">
+        <v>23.028690476190473</v>
+      </c>
+    </row>
+    <row r="102" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z102" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA102" s="22">
+        <v>0.29821128538886027</v>
+      </c>
+    </row>
+    <row r="103" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z103" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA103" s="22">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="104" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z104" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA104" s="22">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="105" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z105" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA105" s="22">
+        <v>2.7331515767690613</v>
+      </c>
+    </row>
+    <row r="106" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z106" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA106" s="22">
+        <v>7.470117541595207</v>
+      </c>
+    </row>
+    <row r="107" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z107" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA107" s="22">
+        <v>-0.66958901692884121</v>
+      </c>
+    </row>
+    <row r="108" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z108" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA108" s="22">
+        <v>0.28132139491345393</v>
+      </c>
+    </row>
+    <row r="109" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z109" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA109" s="22">
+        <v>11.579999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z110" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA110" s="22">
+        <v>17.720000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z111" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA111" s="22">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="112" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z112" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA112" s="22">
+        <v>1934.4099999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="26:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z113" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA113" s="23">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Z51:AA51"/>
     <mergeCell ref="C1:S1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="Z19:AA19"/>
     <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z51:AA51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27994,8 +25941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95565C6-F0A7-4F1E-8FE2-588B19A5EB00}">
   <dimension ref="A1:AI87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28131,20 +26078,20 @@
       <c r="S3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="AC3" s="24" t="s">
+      <c r="V3" s="21"/>
+      <c r="AC3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="24"/>
+      <c r="AD3" s="15"/>
       <c r="AF3" s="18"/>
       <c r="AG3" s="18"/>
       <c r="AH3" s="18"/>
       <c r="AI3" s="18"/>
     </row>
-    <row r="4" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -28205,16 +26152,12 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="18"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -28275,10 +26218,10 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="U5" s="22" t="s">
+      <c r="U5" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5">
         <v>0.47192261904761912</v>
       </c>
       <c r="X5" s="18" t="s">
@@ -28292,10 +26235,10 @@
         <v>0.52327584269132077</v>
       </c>
       <c r="AA5" s="18"/>
-      <c r="AC5" s="22" t="s">
+      <c r="AC5" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5">
         <v>3.487738095238095</v>
       </c>
       <c r="AF5" s="18" t="s">
@@ -28377,10 +26320,10 @@
       <c r="S6" s="9">
         <v>0.36099999999999999</v>
       </c>
-      <c r="U6" s="22" t="s">
+      <c r="U6" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6">
         <v>5.6030960601728226E-3</v>
       </c>
       <c r="X6" s="18" t="s">
@@ -28397,10 +26340,10 @@
         <f>Z5</f>
         <v>0.52327584269132077</v>
       </c>
-      <c r="AC6" s="22" t="s">
+      <c r="AC6" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AD6">
         <v>3.9777187518562018E-2</v>
       </c>
       <c r="AF6" s="18" t="s">
@@ -28418,7 +26361,7 @@
         <v>3.852302040710621</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -28479,10 +26422,10 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="U7" s="22" t="s">
+      <c r="U7" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7">
         <v>0.47</v>
       </c>
       <c r="X7" s="18" t="s">
@@ -28496,10 +26439,10 @@
         <v>0.42056939540391752</v>
       </c>
       <c r="AA7" s="18"/>
-      <c r="AC7" s="22" t="s">
+      <c r="AC7" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="22">
+      <c r="AD7">
         <v>3.46</v>
       </c>
       <c r="AF7" s="18" t="s">
@@ -28514,7 +26457,7 @@
       </c>
       <c r="AI7" s="18"/>
     </row>
-    <row r="8" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -28575,24 +26518,24 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="U8" s="22" t="s">
+      <c r="U8" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8">
         <v>0.47</v>
       </c>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
-      <c r="AC8" s="22" t="s">
+      <c r="AC8" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="22">
+      <c r="AD8">
         <v>3.6599999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -28653,20 +26596,20 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="U9" s="22" t="s">
+      <c r="U9" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9">
         <v>5.1353223643701602E-2</v>
       </c>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
-      <c r="AC9" s="22" t="s">
+      <c r="AC9" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AD9">
         <v>0.36456394547252619</v>
       </c>
     </row>
@@ -28731,20 +26674,20 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="U10" s="22" t="s">
+      <c r="U10" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10">
         <v>2.6371535786000331E-3</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
-      <c r="AC10" s="22" t="s">
+      <c r="AC10" t="s">
         <v>25</v>
       </c>
-      <c r="AD10" s="22">
+      <c r="AD10">
         <v>0.13290687033849505</v>
       </c>
     </row>
@@ -28815,24 +26758,24 @@
       <c r="S11" s="9">
         <v>0.47799999999999998</v>
       </c>
-      <c r="U11" s="22" t="s">
+      <c r="U11" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="22">
+      <c r="V11">
         <v>0.946739535687251</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
-      <c r="AC11" s="22" t="s">
+      <c r="AC11" t="s">
         <v>26</v>
       </c>
-      <c r="AD11" s="22">
+      <c r="AD11">
         <v>1.9746741143280984</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -28893,24 +26836,24 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="U12" s="22" t="s">
+      <c r="U12" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12">
         <v>0.51006960395610834</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
       <c r="AA12" s="18"/>
-      <c r="AC12" s="22" t="s">
+      <c r="AC12" t="s">
         <v>27</v>
       </c>
-      <c r="AD12" s="22">
+      <c r="AD12">
         <v>0.78620840872131348</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -28977,24 +26920,24 @@
       <c r="S13" s="9">
         <v>0.436</v>
       </c>
-      <c r="U13" s="22" t="s">
+      <c r="U13" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="22">
+      <c r="V13">
         <v>0.26</v>
       </c>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
-      <c r="AC13" s="22" t="s">
+      <c r="AC13" t="s">
         <v>28</v>
       </c>
-      <c r="AD13" s="22">
+      <c r="AD13">
         <v>2.0799999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -29055,24 +26998,24 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="U14" s="22" t="s">
+      <c r="U14" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14">
         <v>0.36399999999999999</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
-      <c r="AC14" s="22" t="s">
+      <c r="AC14" t="s">
         <v>29</v>
       </c>
-      <c r="AD14" s="22">
+      <c r="AD14">
         <v>2.73</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -29133,24 +27076,24 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="U15" s="22" t="s">
+      <c r="U15" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="22">
+      <c r="V15">
         <v>0.624</v>
       </c>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
-      <c r="AC15" s="22" t="s">
+      <c r="AC15" t="s">
         <v>30</v>
       </c>
-      <c r="AD15" s="22">
+      <c r="AD15">
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -29211,24 +27154,24 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="U16" s="22" t="s">
+      <c r="U16" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="22">
+      <c r="V16">
         <v>39.641500000000008</v>
       </c>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
-      <c r="AC16" s="22" t="s">
+      <c r="AC16" t="s">
         <v>31</v>
       </c>
-      <c r="AD16" s="22">
+      <c r="AD16">
         <v>292.96999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -29289,24 +27232,24 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="U17" s="23" t="s">
+      <c r="U17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="12">
         <v>84</v>
       </c>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
-      <c r="AC17" s="23" t="s">
+      <c r="AC17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AD17" s="23">
+      <c r="AD17" s="12">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -29372,7 +27315,7 @@
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
     </row>
-    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -29434,7 +27377,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -29496,7 +27439,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -29564,7 +27507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -29632,7 +27575,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -29694,7 +27637,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -29818,7 +27761,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -29880,7 +27823,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -30010,7 +27953,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -30134,7 +28077,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -30196,7 +28139,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -30258,7 +28201,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -30320,7 +28263,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -30382,7 +28325,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -30448,7 +28391,7 @@
       </c>
       <c r="V35" s="21"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -30510,7 +28453,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -30589,7 +28532,7 @@
       </c>
       <c r="AA37" s="18"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -30671,7 +28614,7 @@
         <v>5.4884356908883403</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -30750,7 +28693,7 @@
       </c>
       <c r="AA39" s="18"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42</v>
       </c>
@@ -30818,7 +28761,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43</v>
       </c>
@@ -30960,7 +28903,7 @@
         <v>1.3451930459303552</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -31028,7 +28971,7 @@
         <v>0.8473174712085485</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47</v>
       </c>
@@ -31096,7 +29039,7 @@
         <v>0.57662052144943787</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>49</v>
       </c>
@@ -31232,7 +29175,7 @@
         <v>1.3610558365817524</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>51</v>
       </c>
@@ -31300,7 +29243,7 @@
         <v>7.5547302540519432</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>52</v>
       </c>
@@ -31368,7 +29311,7 @@
         <v>363.60333369274366</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>53</v>
       </c>
@@ -31436,7 +29379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>54</v>
       </c>
@@ -31498,7 +29441,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>55</v>
       </c>
@@ -31632,7 +29575,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>57</v>
       </c>
@@ -31711,7 +29654,7 @@
       </c>
       <c r="AA53" s="18"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>58</v>
       </c>
@@ -31793,7 +29736,7 @@
         <v>1258.3630672908646</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>59</v>
       </c>
@@ -31872,7 +29815,7 @@
       </c>
       <c r="AA55" s="18"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>60</v>
       </c>
@@ -31940,7 +29883,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>61</v>
       </c>
@@ -32008,7 +29951,7 @@
         <v>207.59431861586464</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>62</v>
       </c>
@@ -32082,7 +30025,7 @@
         <v>43095.401121585128</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>63</v>
       </c>
@@ -32150,7 +30093,7 @@
         <v>8.542744870018959E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>64</v>
       </c>
@@ -32292,7 +30235,7 @@
         <v>939.96753489999992</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>66</v>
       </c>
@@ -32360,7 +30303,7 @@
         <v>629.96152910000001</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>67</v>
       </c>
@@ -32428,7 +30371,7 @@
         <v>1569.9290639999999</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>68</v>
       </c>
@@ -32496,7 +30439,7 @@
         <v>88264.574888699994</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>69</v>
       </c>
@@ -32564,7 +30507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>70</v>
       </c>
@@ -32626,7 +30569,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>71</v>
       </c>
@@ -32688,7 +30631,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>72</v>
       </c>
@@ -32750,7 +30693,7 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>74</v>
       </c>
@@ -32812,7 +30755,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -32874,7 +30817,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -32942,7 +30885,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -33004,7 +30947,7 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -33066,7 +31009,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>79</v>
       </c>
@@ -33128,7 +31071,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>81</v>
       </c>
@@ -33190,7 +31133,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>82</v>
       </c>
@@ -33252,7 +31195,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>83</v>
       </c>
@@ -33314,7 +31257,7 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>84</v>
       </c>
@@ -33444,7 +31387,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>87</v>
       </c>
@@ -33506,7 +31449,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>88</v>
       </c>
@@ -33568,7 +31511,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>89</v>
       </c>
@@ -33630,7 +31573,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>90</v>
       </c>
@@ -33692,7 +31635,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>91</v>
       </c>
@@ -33754,7 +31697,7 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>93</v>
       </c>
@@ -33816,7 +31759,7 @@
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>94</v>
       </c>
@@ -33878,7 +31821,7 @@
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>96</v>
       </c>

--- a/Statistical Analysis/Stastical Study of Seed Properties.xlsx
+++ b/Statistical Analysis/Stastical Study of Seed Properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shash\Documents\GitHub\samaraAnalysis\Statistical Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A21792-1270-4474-B32A-1061D0F9AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDF162-4844-4E66-99AC-D0A3FF317DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{70F3C3AB-0120-463F-BA39-B2976DA3DFB9}"/>
   </bookViews>
@@ -17,13 +17,15 @@
     <sheet name="Transition Time Statistics" sheetId="7" r:id="rId2"/>
     <sheet name="Transition Time Stats MASTER" sheetId="8" r:id="rId3"/>
     <sheet name="Rounded Properties" sheetId="9" r:id="rId4"/>
+    <sheet name="Fast Seeds" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">sampleProperties_revA!$C$3:$C$102</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">sampleProperties_revA!$F$3:$F$102</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">sampleProperties_revA!$F$3:$F$102</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">sampleProperties_revA!$C$3:$C$102</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Transition Time Statistics'!$G$3:$G$86</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Transition Time Stats MASTER'!$H$4:$H$87</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Rounded Properties'!$G$4:$G$87</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Fast Seeds'!$G$4:$G$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="71">
   <si>
     <t>Explanatory Variables</t>
   </si>
@@ -247,6 +249,15 @@
   </si>
   <si>
     <t>Chord</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt; x &lt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -793,7 +804,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="15" applyFont="1"/>
@@ -850,11 +861,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,7 +906,112 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="111">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1388,7 +1499,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1511,7 +1622,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1876,6 +1987,71 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Wing Loading Distribution</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Wing Loading Distribution</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{1EB1AE64-2847-A44E-A7CA-6CD9FB24AB31}" formatIdx="0">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9022"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2037,6 +2213,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4616,6 +4832,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4910,7 +5634,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="54038501" y="6000750"/>
-              <a:ext cx="10321925" cy="11439525"/>
+              <a:ext cx="10321925" cy="11468100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5026,8 +5750,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>355601</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5052DD-46FD-463A-B405-F679CD08ADA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="52800251" y="5991225"/>
+              <a:ext cx="10321925" cy="11430000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}" name="Table1" displayName="Table1" ref="A2:S102" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}" name="Table1" displayName="Table1" ref="A2:S102" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
   <autoFilter ref="A2:S102" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}">
     <filterColumn colId="15">
       <filters>
@@ -5104,152 +5911,152 @@
     <sortCondition ref="B2:B102"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{3CF4AA85-9A45-0846-BB6B-50078E0FF06B}" name="Num" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{442B44FD-646A-044A-B7C0-EA7089314974}" name="id" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{A5E5C053-B777-9F42-B018-1DD333891474}" name="Mass [g]" dataDxfId="85" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="17" xr3:uid="{D93E7C88-0D3E-4C31-A331-3EC1540130CD}" name="Mass [S,M,L]]" dataDxfId="84" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{5D92C5A7-3732-2945-AD1C-5AEBA92FEF1E}" name="Area [mm^2]" dataDxfId="83" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="15" xr3:uid="{A245EEED-4CDA-E24C-ABD7-10FB532073DE}" name="Loading: mg/A [N/m^2]" dataDxfId="82" dataCellStyle="20% - Accent1">
+    <tableColumn id="1" xr3:uid="{3CF4AA85-9A45-0846-BB6B-50078E0FF06B}" name="Num" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{442B44FD-646A-044A-B7C0-EA7089314974}" name="id" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{A5E5C053-B777-9F42-B018-1DD333891474}" name="Mass [g]" dataDxfId="106" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="17" xr3:uid="{D93E7C88-0D3E-4C31-A331-3EC1540130CD}" name="Mass [S,M,L]]" dataDxfId="105" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{5D92C5A7-3732-2945-AD1C-5AEBA92FEF1E}" name="Area [mm^2]" dataDxfId="104" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="15" xr3:uid="{A245EEED-4CDA-E24C-ABD7-10FB532073DE}" name="Loading: mg/A [N/m^2]" dataDxfId="103" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(Table1[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table1[[#This Row],[Area '[mm^2']]]*0.000001)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7817C8F7-F05B-0540-A2A7-138D78350D6C}" name="Loading: mg/A" dataDxfId="81" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" xr3:uid="{03FE9134-494E-7E45-B2DA-CEB9D9FE5F68}" name="Span: b [mm]" dataDxfId="80" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="19" xr3:uid="{82F0AA8C-3F2E-4A45-8F77-1C9DB2E95BAA}" name="Span [S,M,L]" dataDxfId="79" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="7" xr3:uid="{A9125F62-2FC8-5C4F-9EE8-39DAF7B6F200}" name="Chord: c [mm]" dataDxfId="78" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="20" xr3:uid="{EE6A20C8-E568-4324-BDEB-2C0B3C5E8188}" name="Chord [S,M,L]" dataDxfId="77" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="8" xr3:uid="{39167B57-613A-6A49-9C61-69C90A4D1214}" name="Aspect: Disregard" dataDxfId="76" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="9" xr3:uid="{759B2256-081E-5F4F-A7AB-99EF68039FF8}" name="Aspect Ratio = b^2/A" dataDxfId="75" dataCellStyle="20% - Accent1">
+    <tableColumn id="5" xr3:uid="{7817C8F7-F05B-0540-A2A7-138D78350D6C}" name="Loading: mg/A" dataDxfId="102" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{03FE9134-494E-7E45-B2DA-CEB9D9FE5F68}" name="Span: b [mm]" dataDxfId="101" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="19" xr3:uid="{82F0AA8C-3F2E-4A45-8F77-1C9DB2E95BAA}" name="Span [S,M,L]" dataDxfId="100" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="7" xr3:uid="{A9125F62-2FC8-5C4F-9EE8-39DAF7B6F200}" name="Chord: c [mm]" dataDxfId="99" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="20" xr3:uid="{EE6A20C8-E568-4324-BDEB-2C0B3C5E8188}" name="Chord [S,M,L]" dataDxfId="98" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="8" xr3:uid="{39167B57-613A-6A49-9C61-69C90A4D1214}" name="Aspect: Disregard" dataDxfId="97" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="9" xr3:uid="{759B2256-081E-5F4F-A7AB-99EF68039FF8}" name="Aspect Ratio = b^2/A" dataDxfId="96" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(H3^2)/E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B51E2FEA-23AC-4D4E-967A-736830492433}" name="Aspect Ratio [S,M,L]" dataDxfId="74" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="10" xr3:uid="{32D9763A-FE24-E14C-B284-54139CB6AED3}" name="Aspect Ratio = b/c" dataDxfId="73" dataCellStyle="20% - Accent1">
+    <tableColumn id="16" xr3:uid="{B51E2FEA-23AC-4D4E-967A-736830492433}" name="Aspect Ratio [S,M,L]" dataDxfId="95" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="10" xr3:uid="{32D9763A-FE24-E14C-B284-54139CB6AED3}" name="Aspect Ratio = b/c" dataDxfId="94" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>H3/J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1AE2295B-50CA-B941-BC02-5A6302399AA4}" name="Transition Time: t [s]" dataDxfId="72" dataCellStyle="20% - Accent3"/>
-    <tableColumn id="12" xr3:uid="{176B5BC4-7445-1041-B2B1-80DDF16E5973}" name="1" dataDxfId="71" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="13" xr3:uid="{39ACADC4-E2F5-4942-8917-611B64B8B95E}" name="2" dataDxfId="70" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="14" xr3:uid="{13A89B97-D96F-0143-BB84-8BCE530E7DE2}" name="3" dataDxfId="69" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="11" xr3:uid="{1AE2295B-50CA-B941-BC02-5A6302399AA4}" name="Transition Time: t [s]" dataDxfId="93" dataCellStyle="20% - Accent3"/>
+    <tableColumn id="12" xr3:uid="{176B5BC4-7445-1041-B2B1-80DDF16E5973}" name="1" dataDxfId="92" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="13" xr3:uid="{39ACADC4-E2F5-4942-8917-611B64B8B95E}" name="2" dataDxfId="91" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="14" xr3:uid="{13A89B97-D96F-0143-BB84-8BCE530E7DE2}" name="3" dataDxfId="90" dataCellStyle="20% - Accent5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{162D6CB9-557F-41FD-B7C5-C31AAC8B5953}" name="Table15" displayName="Table15" ref="A2:T86" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{162D6CB9-557F-41FD-B7C5-C31AAC8B5953}" name="Table15" displayName="Table15" ref="A2:T86" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
   <autoFilter ref="A2:T86" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T86">
     <sortCondition ref="B2:B86"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{89BD4D2F-6533-498E-AF2B-C16EF675A5E8}" name="Num" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{551F83F2-D1A0-4E1F-B6E4-6013E070A33B}" name="id" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{84CAF2D3-E281-41B7-91CD-EE5E76C55BD3}" name="Mass [g]" dataDxfId="64" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="17" xr3:uid="{E2142AF2-9604-45D6-923E-4909C10B3360}" name="Mass [L,M,S]" dataDxfId="63" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{E51E4115-AFFA-4085-BA3C-1D0278428A07}" name="Area [mm^2]" dataDxfId="62" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="21" xr3:uid="{E3D4CE1C-F029-40C8-AA3A-BD7A36BB0124}" name="Area [L,M,S]" dataDxfId="61" dataCellStyle="20% - Accent1">
+    <tableColumn id="1" xr3:uid="{89BD4D2F-6533-498E-AF2B-C16EF675A5E8}" name="Num" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{551F83F2-D1A0-4E1F-B6E4-6013E070A33B}" name="id" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{84CAF2D3-E281-41B7-91CD-EE5E76C55BD3}" name="Mass [g]" dataDxfId="85" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="17" xr3:uid="{E2142AF2-9604-45D6-923E-4909C10B3360}" name="Mass [L,M,S]" dataDxfId="84" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{E51E4115-AFFA-4085-BA3C-1D0278428A07}" name="Area [mm^2]" dataDxfId="83" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="21" xr3:uid="{E3D4CE1C-F029-40C8-AA3A-BD7A36BB0124}" name="Area [L,M,S]" dataDxfId="82" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table15[[#This Row],[Area '[mm^2']]]&gt;$AA$52, "L", (IF(Table15[[#This Row],[Area '[mm^2']]]&gt;$AA$54, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{05768469-669C-43BE-94E3-3EB84A88B946}" name="Loading: mg/A [N/m^2]" dataDxfId="60" dataCellStyle="20% - Accent1">
+    <tableColumn id="15" xr3:uid="{05768469-669C-43BE-94E3-3EB84A88B946}" name="Loading: mg/A [N/m^2]" dataDxfId="81" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(Table15[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15[[#This Row],[Area '[mm^2']]]*0.000001)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D4499348-A83F-41CC-9F7A-011F749E9FB1}" name="Loading [L,M,S]" dataDxfId="59" dataCellStyle="20% - Accent1">
+    <tableColumn id="18" xr3:uid="{D4499348-A83F-41CC-9F7A-011F749E9FB1}" name="Loading [L,M,S]" dataDxfId="80" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table15[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$AA$36, "L", (IF(Table15[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$AA$38, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A09605A-206D-4B98-9167-75995FFEFF48}" name="Span: b [mm]" dataDxfId="58" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="19" xr3:uid="{EC8DBC2A-F209-4CAC-8316-7FE2596458A5}" name="Span [L,M,S]" dataDxfId="57" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="7" xr3:uid="{D2440B97-FB30-4B54-B54C-9405E3A17F39}" name="Chord: c [mm]" dataDxfId="56" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="20" xr3:uid="{70E481C6-C7E5-4341-A9FA-1626D6D19EF1}" name="Chord [L,M,S]" dataDxfId="55" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="9" xr3:uid="{DD96B92E-9A43-4435-8FFE-56BC2AA901FC}" name="Aspect Ratio = b^2/A" dataDxfId="54" dataCellStyle="20% - Accent1">
+    <tableColumn id="6" xr3:uid="{5A09605A-206D-4B98-9167-75995FFEFF48}" name="Span: b [mm]" dataDxfId="79" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="19" xr3:uid="{EC8DBC2A-F209-4CAC-8316-7FE2596458A5}" name="Span [L,M,S]" dataDxfId="78" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="7" xr3:uid="{D2440B97-FB30-4B54-B54C-9405E3A17F39}" name="Chord: c [mm]" dataDxfId="77" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="20" xr3:uid="{70E481C6-C7E5-4341-A9FA-1626D6D19EF1}" name="Chord [L,M,S]" dataDxfId="76" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="9" xr3:uid="{DD96B92E-9A43-4435-8FFE-56BC2AA901FC}" name="Aspect Ratio = b^2/A" dataDxfId="75" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(I3^2)/E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C7F6BC1-4CA4-4C05-9B8F-E0615FFFB644}" name="Aspect Ratio[L,M,S]" dataDxfId="53" dataCellStyle="20% - Accent1">
+    <tableColumn id="8" xr3:uid="{1C7F6BC1-4CA4-4C05-9B8F-E0615FFFB644}" name="Aspect Ratio[L,M,S]" dataDxfId="74" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table15[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AA$20, "L", (IF(Table15[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AA$22, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4AC9DAB1-7087-49CB-8AEC-2BD7944E006B}" name="Aspect Ratio = b/c" dataDxfId="52" dataCellStyle="20% - Accent1">
+    <tableColumn id="10" xr3:uid="{4AC9DAB1-7087-49CB-8AEC-2BD7944E006B}" name="Aspect Ratio = b/c" dataDxfId="73" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>I3/K3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{01D3AFEB-5BDF-4955-80FE-BBB333C69662}" name="Transition Time: t [s]" dataDxfId="51" dataCellStyle="20% - Accent3"/>
-    <tableColumn id="16" xr3:uid="{198768CE-4149-4F84-AE1A-6511AB382D64}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="50" dataCellStyle="20% - Accent3">
+    <tableColumn id="11" xr3:uid="{01D3AFEB-5BDF-4955-80FE-BBB333C69662}" name="Transition Time: t [s]" dataDxfId="72" dataCellStyle="20% - Accent3"/>
+    <tableColumn id="16" xr3:uid="{198768CE-4149-4F84-AE1A-6511AB382D64}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="71" dataCellStyle="20% - Accent3">
       <calculatedColumnFormula>IF(Table15[[#This Row],[Transition Time: t '[s']]]&gt;$AA$4, "SLOW", (IF(Table15[[#This Row],[Transition Time: t '[s']]]&gt;$AA$6, "AVERAGE", "FAST")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0D477162-757F-4AEE-85A6-062160D75AEF}" name="1" dataDxfId="49" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="13" xr3:uid="{2440FC9D-A943-44BD-86F8-97BF2DDF224E}" name="2" dataDxfId="48" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="14" xr3:uid="{D83D56A2-64D8-43D0-9A8A-FE5EE7727FE3}" name="3" dataDxfId="47" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="12" xr3:uid="{0D477162-757F-4AEE-85A6-062160D75AEF}" name="1" dataDxfId="70" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="13" xr3:uid="{2440FC9D-A943-44BD-86F8-97BF2DDF224E}" name="2" dataDxfId="69" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="14" xr3:uid="{D83D56A2-64D8-43D0-9A8A-FE5EE7727FE3}" name="3" dataDxfId="68" dataCellStyle="20% - Accent5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10BFB4EA-4825-4D42-8EFA-E21613D82F18}" name="Table156" displayName="Table156" ref="A3:X87" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10BFB4EA-4825-4D42-8EFA-E21613D82F18}" name="Table156" displayName="Table156" ref="A3:X87" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
   <autoFilter ref="A3:X87" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:X87">
     <sortCondition ref="B3:B87"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{4F39DB47-9AEA-4CF9-91C2-8BF77F720469}" name="Num" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{E7D0B6C1-B0E5-472A-BEE1-85FDEE41A7FA}" name="id" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{63134CDC-11EC-45EF-822F-F73E24FD15DB}" name="Mass [g]" dataDxfId="42" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="17" xr3:uid="{F33A7560-F44C-4419-9566-FC121DC9CF4A}" name="Mass [L,M,S]" dataDxfId="41" dataCellStyle="20% - Accent1">
+    <tableColumn id="1" xr3:uid="{4F39DB47-9AEA-4CF9-91C2-8BF77F720469}" name="Num" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{E7D0B6C1-B0E5-472A-BEE1-85FDEE41A7FA}" name="id" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{63134CDC-11EC-45EF-822F-F73E24FD15DB}" name="Mass [g]" dataDxfId="63" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="17" xr3:uid="{F33A7560-F44C-4419-9566-FC121DC9CF4A}" name="Mass [L,M,S]" dataDxfId="62" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table156[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD5AEC8A-832A-407E-B092-B483D27F65EC}" name="Area [mm^2]" dataDxfId="40" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" xr3:uid="{80928843-3B8E-4E00-9BB2-3CB4E51EAAD3}" name="Area [mm^2] Rounded" dataDxfId="39" dataCellStyle="20% - Accent1">
+    <tableColumn id="4" xr3:uid="{BD5AEC8A-832A-407E-B092-B483D27F65EC}" name="Area [mm^2]" dataDxfId="61" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{80928843-3B8E-4E00-9BB2-3CB4E51EAAD3}" name="Area [mm^2] Rounded" dataDxfId="60" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Area '[mm^2']]], 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{488B557D-7909-401A-A5D7-10BD93B08E9B}" name="Area [L,M,S]" dataDxfId="38" dataCellStyle="20% - Accent1">
+    <tableColumn id="21" xr3:uid="{488B557D-7909-401A-A5D7-10BD93B08E9B}" name="Area [L,M,S]" dataDxfId="59" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Area '[mm^2'] Rounded]]&gt;$AE$53, "L", (IF(Table156[[#This Row],[Area '[mm^2'] Rounded]]&gt;$AE$55, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{803E9B32-8041-46B9-BF42-48214DC67C26}" name="Loading: mg/A [N/m^2]" dataDxfId="37" dataCellStyle="20% - Accent1">
+    <tableColumn id="15" xr3:uid="{803E9B32-8041-46B9-BF42-48214DC67C26}" name="Loading: mg/A [N/m^2]" dataDxfId="58" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(Table156[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table156[[#This Row],[Area '[mm^2']]]*0.000001)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{423BB4F9-DA2A-4A71-8D56-2F0CE10C71EB}" name="Loading [N/m^2] Rounded" dataDxfId="36" dataCellStyle="20% - Accent1">
+    <tableColumn id="22" xr3:uid="{423BB4F9-DA2A-4A71-8D56-2F0CE10C71EB}" name="Loading [N/m^2] Rounded" dataDxfId="57" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Loading: mg/A '[N/m^2']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{08CDF66C-CB66-4E96-945D-B834C0B6FBA2}" name="Loading [L,M,S]" dataDxfId="35" dataCellStyle="20% - Accent1">
+    <tableColumn id="18" xr3:uid="{08CDF66C-CB66-4E96-945D-B834C0B6FBA2}" name="Loading [L,M,S]" dataDxfId="56" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Loading '[N/m^2'] Rounded]]&gt;$AE$37, "L", (IF(Table156[[#This Row],[Loading '[N/m^2'] Rounded]]&gt;$AE$39, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{15862C6A-3975-48AF-ACC0-1ABA3ABD7B75}" name="Span: b [mm]" dataDxfId="34" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="23" xr3:uid="{85241F74-09F8-4D8C-8406-1D0565634FC9}" name="Span: b [mm] Rounded" dataDxfId="33" dataCellStyle="20% - Accent1">
+    <tableColumn id="6" xr3:uid="{15862C6A-3975-48AF-ACC0-1ABA3ABD7B75}" name="Span: b [mm]" dataDxfId="55" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="23" xr3:uid="{85241F74-09F8-4D8C-8406-1D0565634FC9}" name="Span: b [mm] Rounded" dataDxfId="54" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Span: b '[mm']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8717B2E8-88BB-4EED-9328-0373DB83A24C}" name="Span [L,M,S]" dataDxfId="32" dataCellStyle="20% - Accent1">
+    <tableColumn id="19" xr3:uid="{8717B2E8-88BB-4EED-9328-0373DB83A24C}" name="Span [L,M,S]" dataDxfId="53" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Span: b '[mm'] Rounded]]&gt;63, "L", (IF(Table156[[#This Row],[Span: b '[mm'] Rounded]]&gt;58, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A2EF55C7-D74D-4B1F-A4BF-04AFD6EE7EF8}" name="Chord: c [mm]" dataDxfId="31" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="24" xr3:uid="{B90185AC-7252-4A87-93C3-28C79AA0AB91}" name="Chord: c [mm] Rounded" dataDxfId="30" dataCellStyle="20% - Accent1">
+    <tableColumn id="7" xr3:uid="{A2EF55C7-D74D-4B1F-A4BF-04AFD6EE7EF8}" name="Chord: c [mm]" dataDxfId="52" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="24" xr3:uid="{B90185AC-7252-4A87-93C3-28C79AA0AB91}" name="Chord: c [mm] Rounded" dataDxfId="51" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Chord: c '[mm']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{19F30A62-86CD-4090-9FC5-8ABB2CFA47B0}" name="Chord [L,M,S]" dataDxfId="29" dataCellStyle="20% - Accent1">
+    <tableColumn id="20" xr3:uid="{19F30A62-86CD-4090-9FC5-8ABB2CFA47B0}" name="Chord [L,M,S]" dataDxfId="50" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Chord: c '[mm'] Rounded]]&gt;24.5, "L", (IF(Table156[[#This Row],[Chord: c '[mm'] Rounded]]&gt;21, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{08B57848-CF58-4831-B529-4B940D648C81}" name="Aspect Ratio = b^2/A" dataDxfId="28" dataCellStyle="20% - Accent1">
+    <tableColumn id="9" xr3:uid="{08B57848-CF58-4831-B529-4B940D648C81}" name="Aspect Ratio = b^2/A" dataDxfId="49" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>(K4^2)/E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{046C195E-CF11-4B31-94E7-9E5D67044409}" name="Aspect Ratio = b^2/A Rounded" dataDxfId="27" dataCellStyle="20% - Accent1">
+    <tableColumn id="25" xr3:uid="{046C195E-CF11-4B31-94E7-9E5D67044409}" name="Aspect Ratio = b^2/A Rounded" dataDxfId="48" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP(Table156[[#This Row],[Aspect Ratio = b^2/A]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{667800F5-CAB8-4E53-A0D2-F1E4892A4888}" name="Aspect Ratio[L,M,S]" dataDxfId="26" dataCellStyle="20% - Accent1">
+    <tableColumn id="8" xr3:uid="{667800F5-CAB8-4E53-A0D2-F1E4892A4888}" name="Aspect Ratio[L,M,S]" dataDxfId="47" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Aspect Ratio = b^2/A Rounded]]&gt;$AE$21, "L", (IF(Table156[[#This Row],[Aspect Ratio = b^2/A Rounded]]&gt;$AE$23, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{96D39549-A53E-409A-A985-AF21C6FD140C}" name="Transition Time: t [s]" dataDxfId="25" dataCellStyle="20% - Accent3"/>
-    <tableColumn id="16" xr3:uid="{1E13852D-315C-4703-88AB-A4FF2A94CC9C}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="24" dataCellStyle="20% - Accent3">
+    <tableColumn id="11" xr3:uid="{96D39549-A53E-409A-A985-AF21C6FD140C}" name="Transition Time: t [s]" dataDxfId="46" dataCellStyle="20% - Accent3"/>
+    <tableColumn id="16" xr3:uid="{1E13852D-315C-4703-88AB-A4FF2A94CC9C}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="45" dataCellStyle="20% - Accent3">
       <calculatedColumnFormula>IF(Table156[[#This Row],[Transition Time: t '[s']]]&gt;$AE$5, "SLOW", (IF(Table156[[#This Row],[Transition Time: t '[s']]]&gt;$AE$7, "AVERAGE", "FAST")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{1464CC48-6A34-4E88-9E75-70DD3FA149B7}" name="1" dataDxfId="23" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="13" xr3:uid="{FA24F7E5-53D2-4912-A65F-7044CD6213CA}" name="2" dataDxfId="22" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="14" xr3:uid="{10A0C0C4-3FE9-4D0B-8D57-9ED26B8333FC}" name="3" dataDxfId="21" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="12" xr3:uid="{1464CC48-6A34-4E88-9E75-70DD3FA149B7}" name="1" dataDxfId="44" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="13" xr3:uid="{FA24F7E5-53D2-4912-A65F-7044CD6213CA}" name="2" dataDxfId="43" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="14" xr3:uid="{10A0C0C4-3FE9-4D0B-8D57-9ED26B8333FC}" name="3" dataDxfId="42" dataCellStyle="20% - Accent5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5AC6ABD-4DAE-48F0-AFE3-0DD771DD2CAB}" name="Table1567" displayName="Table1567" ref="A3:S87" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5AC6ABD-4DAE-48F0-AFE3-0DD771DD2CAB}" name="Table1567" displayName="Table1567" ref="A3:S87" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
   <autoFilter ref="A3:S87" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}">
     <filterColumn colId="15">
       <filters>
-        <filter val="FAST"/>
+        <filter val="SLOW"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5257,43 +6064,92 @@
     <sortCondition ref="B3:B87"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{B3E257C1-8F08-4509-9A68-B73973D2E7F1}" name="Num" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{0AF28EFB-54E4-4CFE-AAC4-1C3E11F936D9}" name="id" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3FCA718C-B19C-4ED8-AC1D-5FB469D036C6}" name="Mass [g]" dataDxfId="16" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="17" xr3:uid="{954B3B71-7BBC-4010-AB37-5871C7034AAF}" name="Mass [L,M,S]" dataDxfId="15" dataCellStyle="20% - Accent1">
+    <tableColumn id="1" xr3:uid="{B3E257C1-8F08-4509-9A68-B73973D2E7F1}" name="Num" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{0AF28EFB-54E4-4CFE-AAC4-1C3E11F936D9}" name="id" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{3FCA718C-B19C-4ED8-AC1D-5FB469D036C6}" name="Mass [g]" dataDxfId="37" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="17" xr3:uid="{954B3B71-7BBC-4010-AB37-5871C7034AAF}" name="Mass [L,M,S]" dataDxfId="36" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table1567[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1D3CF1EE-4CC4-4CDC-86A8-09BC0D96DFAA}" name="Area [mm^2]" dataDxfId="14" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="21" xr3:uid="{9390B2A6-4941-4B66-B75C-148524D20C2B}" name="Area [L,M,S]" dataDxfId="13" dataCellStyle="20% - Accent1">
+    <tableColumn id="5" xr3:uid="{1D3CF1EE-4CC4-4CDC-86A8-09BC0D96DFAA}" name="Area [mm^2]" dataDxfId="35" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="21" xr3:uid="{9390B2A6-4941-4B66-B75C-148524D20C2B}" name="Area [L,M,S]" dataDxfId="34" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table1567[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{BC4151CB-25CE-46F1-A1F4-88B0837C7E55}" name="Loading: mg/A [N/m^2]" dataDxfId="12" dataCellStyle="20% - Accent1">
+    <tableColumn id="15" xr3:uid="{BC4151CB-25CE-46F1-A1F4-88B0837C7E55}" name="Loading: mg/A [N/m^2]" dataDxfId="33" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP((Table1567[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table1567[[#This Row],[Area '[mm^2']]]*0.000001),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{DDC2412F-021E-43DC-AF45-43093995236D}" name="Loading [L,M,S]" dataDxfId="11" dataCellStyle="20% - Accent1">
+    <tableColumn id="18" xr3:uid="{DDC2412F-021E-43DC-AF45-43093995236D}" name="Loading [L,M,S]" dataDxfId="32" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table1567[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{21E8EC4C-61E9-46E5-86B6-A275E1DB5901}" name="Span: b [mm]" dataDxfId="10" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="19" xr3:uid="{6F82D98E-8BDF-44DC-BC2F-77B7E79118A3}" name="Span [L,M,S]" dataDxfId="9" dataCellStyle="20% - Accent1">
+    <tableColumn id="23" xr3:uid="{21E8EC4C-61E9-46E5-86B6-A275E1DB5901}" name="Span: b [mm]" dataDxfId="31" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="19" xr3:uid="{6F82D98E-8BDF-44DC-BC2F-77B7E79118A3}" name="Span [L,M,S]" dataDxfId="30" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table1567[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{28DEC1F4-9F48-4C7B-89D8-02B9A5CDFD11}" name="Chord: c [mm]" dataDxfId="8" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="20" xr3:uid="{116BFBCB-C103-4DF9-B417-105D134A8E5A}" name="Chord [L,M,S]" dataDxfId="7" dataCellStyle="20% - Accent1">
+    <tableColumn id="24" xr3:uid="{28DEC1F4-9F48-4C7B-89D8-02B9A5CDFD11}" name="Chord: c [mm]" dataDxfId="29" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="20" xr3:uid="{116BFBCB-C103-4DF9-B417-105D134A8E5A}" name="Chord [L,M,S]" dataDxfId="28" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table1567[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0360C153-9D20-4787-B5F0-C207DEE37844}" name="Aspect Ratio = b^2/A" dataDxfId="6" dataCellStyle="20% - Accent1">
+    <tableColumn id="9" xr3:uid="{0360C153-9D20-4787-B5F0-C207DEE37844}" name="Aspect Ratio = b^2/A" dataDxfId="27" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>ROUNDUP((Table1567[[#This Row],[Span: b '[mm']]]^2)/Table1567[[#This Row],[Area '[mm^2']]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{217BF731-A5BF-4977-910D-E50A20EFB45F}" name="Aspect Ratio[L,M,S]" dataDxfId="5" dataCellStyle="20% - Accent1">
+    <tableColumn id="8" xr3:uid="{217BF731-A5BF-4977-910D-E50A20EFB45F}" name="Aspect Ratio[L,M,S]" dataDxfId="26" dataCellStyle="20% - Accent1">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table1567[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AFA51A67-18E5-4684-807C-2878F2065737}" name="Transition Time: t [s]" dataDxfId="4" dataCellStyle="20% - Accent3"/>
-    <tableColumn id="16" xr3:uid="{8201CA0D-C85F-4610-8456-33A3C49BC0DC}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="3" dataCellStyle="20% - Accent3">
+    <tableColumn id="11" xr3:uid="{AFA51A67-18E5-4684-807C-2878F2065737}" name="Transition Time: t [s]" dataDxfId="25" dataCellStyle="20% - Accent3"/>
+    <tableColumn id="16" xr3:uid="{8201CA0D-C85F-4610-8456-33A3C49BC0DC}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="24" dataCellStyle="20% - Accent3">
       <calculatedColumnFormula>IF(Table1567[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table1567[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5967FC1A-A724-4C8F-98B0-A43CA7E8288D}" name="1" dataDxfId="2" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="13" xr3:uid="{4D5CC357-0393-4B28-B2E4-00A074AC3EFD}" name="2" dataDxfId="1" dataCellStyle="20% - Accent5"/>
-    <tableColumn id="14" xr3:uid="{3CFCF80A-282E-4614-BC43-A6237FE1CDF9}" name="3" dataDxfId="0" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="12" xr3:uid="{5967FC1A-A724-4C8F-98B0-A43CA7E8288D}" name="1" dataDxfId="23" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="13" xr3:uid="{4D5CC357-0393-4B28-B2E4-00A074AC3EFD}" name="2" dataDxfId="22" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="14" xr3:uid="{3CFCF80A-282E-4614-BC43-A6237FE1CDF9}" name="3" dataDxfId="21" dataCellStyle="20% - Accent5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D8873CE-FC8A-45C6-ADB6-2431634C36AB}" name="Table15673" displayName="Table15673" ref="A3:S87" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent5">
+  <autoFilter ref="A3:S87" xr:uid="{E5B61A00-5AF6-2A4A-9778-06EAC2F9166B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:S87">
+    <sortCondition ref="B3:B87"/>
+  </sortState>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{D79705A4-BD59-4305-A96B-E481BB371091}" name="Num" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{B50426AD-F813-439E-BC61-155FD94A1C75}" name="id" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{46A74FEF-B865-4762-ACDE-C4E9857DF59A}" name="Mass [g]" dataDxfId="16" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="17" xr3:uid="{C1E59B73-9FB2-4079-9DF3-85F87978FB9E}" name="Mass [L,M,S]" dataDxfId="15" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2B41C7CA-1717-4274-BBF6-0E6A670922A7}" name="Area [mm^2]" dataDxfId="14" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="21" xr3:uid="{AE5E4F32-EBD1-4F63-B163-3BE42DBC598E}" name="Area [L,M,S]" dataDxfId="13" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{D6ADD553-7C11-4D8E-9464-DBD9A8968795}" name="Loading: mg/A [N/m^2]" dataDxfId="12" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{20DFE062-EF47-4601-A783-30EE7E629F84}" name="Loading [L,M,S]" dataDxfId="11" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{786DC2F0-7EA5-44D2-88A9-7D9EB27690D6}" name="Span: b [mm]" dataDxfId="10" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="19" xr3:uid="{84379698-79F3-4051-8438-ABCB92C80935}" name="Span [L,M,S]" dataDxfId="9" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{3909431A-9C92-4C2F-83E1-CE146906C5F9}" name="Chord: c [mm]" dataDxfId="8" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="20" xr3:uid="{CC2D189C-6075-4F0D-B873-F41F93AAC07F}" name="Chord [L,M,S]" dataDxfId="7" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2BD7A1D7-0A52-4E2E-A48D-4658485BC182}" name="Aspect Ratio = b^2/A" dataDxfId="6" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EA39383A-F0E0-43A5-BAF1-C10B5C19027B}" name="Aspect Ratio[L,M,S]" dataDxfId="5" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{1196EC5F-EFBB-4B76-AB4E-2297893E1437}" name="Transition Time: t [s]" dataDxfId="4" dataCellStyle="20% - Accent3"/>
+    <tableColumn id="16" xr3:uid="{1A67A293-6631-46A1-94AA-D37326486EC4}" name="Transition Time Descriptor: [Slow, Average, Fast]" dataDxfId="3" dataCellStyle="20% - Accent3">
+      <calculatedColumnFormula>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{284B477C-952E-48B5-B3A9-8D620B345C29}" name="1" dataDxfId="2" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="13" xr3:uid="{48A84D27-C5FB-437A-B80A-12991F1CFEE6}" name="2" dataDxfId="1" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="14" xr3:uid="{D02047DC-0D0E-4FC2-8D02-51207C16315E}" name="3" dataDxfId="0" dataCellStyle="20% - Accent5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17945,8 +18801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6268479-2E0E-4ACF-85FE-CD176DDA1192}">
   <dimension ref="A1:AQ113"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18307,7 +19163,7 @@
         <v>39</v>
       </c>
       <c r="AD5" s="18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="AE5" s="18">
         <f>AA5+AA9</f>
@@ -18419,7 +19275,7 @@
         <v>0.42056939540391752</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AF6" s="18">
         <f>AE5</f>
@@ -18517,7 +19373,7 @@
         <v>41</v>
       </c>
       <c r="AD7" s="18" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AE7" s="18">
         <f>AA5-AA9</f>
@@ -19816,7 +20672,7 @@
         <v>50</v>
       </c>
       <c r="AD21" s="18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="AE21" s="18">
         <f>AA21+AA25</f>
@@ -19925,7 +20781,7 @@
         <v>3.1187535745992534</v>
       </c>
       <c r="AE22" s="18" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AF22" s="18">
         <f>AE21</f>
@@ -20023,7 +20879,7 @@
         <v>49</v>
       </c>
       <c r="AD23" s="18" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AE23" s="18">
         <f>AA21-AA25</f>
@@ -21258,7 +22114,7 @@
         <v>50</v>
       </c>
       <c r="AD37" s="18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="AE37" s="18">
         <f>AA37+AA41</f>
@@ -21361,7 +22217,7 @@
         <v>3.1687865398912711</v>
       </c>
       <c r="AE38" s="18" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AF38" s="18">
         <f>AE37</f>
@@ -21459,7 +22315,7 @@
         <v>49</v>
       </c>
       <c r="AD39" s="18" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AE39" s="18">
         <f>AA37-AA41</f>
@@ -22700,7 +23556,7 @@
         <v>50</v>
       </c>
       <c r="AD53" s="18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="AE53" s="18">
         <f>AA53+AA57</f>
@@ -22803,7 +23659,7 @@
         <v>843.17443005913526</v>
       </c>
       <c r="AE54" s="18" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AF54" s="18">
         <f>AE53</f>
@@ -22901,7 +23757,7 @@
         <v>49</v>
       </c>
       <c r="AD55" s="18" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AE55" s="18">
         <f>AA53-AA57</f>
@@ -23713,7 +24569,7 @@
         <v>88264.574888699994</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>69</v>
       </c>
@@ -23801,7 +24657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>70</v>
       </c>
@@ -23883,7 +24739,7 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>71</v>
       </c>
@@ -23964,12 +24820,12 @@
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
-      <c r="Z67" s="24" t="s">
+      <c r="Z67" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AA67" s="24"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA67" s="15"/>
+    </row>
+    <row r="68" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>72</v>
       </c>
@@ -24050,10 +24906,8 @@
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>74</v>
       </c>
@@ -24134,14 +24988,25 @@
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
-      <c r="Z69" s="22" t="s">
+      <c r="Z69" t="s">
         <v>14</v>
       </c>
-      <c r="AA69" s="22">
+      <c r="AA69">
         <v>0.45952380952380945</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC69" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD69" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE69" s="18">
+        <f>AA69+AA73</f>
+        <v>0.59043263240524946</v>
+      </c>
+      <c r="AF69" s="18"/>
+    </row>
+    <row r="70" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -24222,14 +25087,28 @@
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
-      <c r="Z70" s="22" t="s">
+      <c r="Z70" t="s">
         <v>21</v>
       </c>
-      <c r="AA70" s="22">
+      <c r="AA70">
         <v>1.4283323571232524E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC70" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD70" s="18">
+        <f>AE71</f>
+        <v>0.32861498664236943</v>
+      </c>
+      <c r="AE70" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF70" s="18">
+        <f>AE69</f>
+        <v>0.59043263240524946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -24316,14 +25195,25 @@
       <c r="X71" s="9">
         <v>0.435</v>
       </c>
-      <c r="Z71" s="22" t="s">
+      <c r="Z71" t="s">
         <v>22</v>
       </c>
-      <c r="AA71" s="22">
+      <c r="AA71">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC71" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD71" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE71" s="18">
+        <f>AA69-AA73</f>
+        <v>0.32861498664236943</v>
+      </c>
+      <c r="AF71" s="18"/>
+    </row>
+    <row r="72" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -24404,14 +25294,14 @@
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
-      <c r="Z72" s="22" t="s">
+      <c r="Z72" t="s">
         <v>23</v>
       </c>
-      <c r="AA72" s="22">
+      <c r="AA72">
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -24492,14 +25382,14 @@
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
-      <c r="Z73" s="22" t="s">
+      <c r="Z73" t="s">
         <v>24</v>
       </c>
-      <c r="AA73" s="22">
+      <c r="AA73">
         <v>0.13090882288144001</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>79</v>
       </c>
@@ -24580,14 +25470,14 @@
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
-      <c r="Z74" s="22" t="s">
+      <c r="Z74" t="s">
         <v>25</v>
       </c>
-      <c r="AA74" s="22">
+      <c r="AA74">
         <v>1.7137119908204233E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>81</v>
       </c>
@@ -24668,14 +25558,14 @@
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
-      <c r="Z75" s="22" t="s">
+      <c r="Z75" t="s">
         <v>26</v>
       </c>
-      <c r="AA75" s="22">
+      <c r="AA75">
         <v>1.1583715789136306E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>82</v>
       </c>
@@ -24756,14 +25646,14 @@
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
-      <c r="Z76" s="22" t="s">
+      <c r="Z76" t="s">
         <v>27</v>
       </c>
-      <c r="AA76" s="22">
+      <c r="AA76">
         <v>6.7602249818898591E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>83</v>
       </c>
@@ -24844,14 +25734,14 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
-      <c r="Z77" s="22" t="s">
+      <c r="Z77" t="s">
         <v>28</v>
       </c>
-      <c r="AA77" s="22">
+      <c r="AA77">
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>84</v>
       </c>
@@ -24932,14 +25822,14 @@
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
-      <c r="Z78" s="22" t="s">
+      <c r="Z78" t="s">
         <v>29</v>
       </c>
-      <c r="AA78" s="22">
+      <c r="AA78">
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>86</v>
       </c>
@@ -25026,14 +25916,14 @@
       <c r="X79" s="9">
         <v>0.33700000000000002</v>
       </c>
-      <c r="Z79" s="22" t="s">
+      <c r="Z79" t="s">
         <v>30</v>
       </c>
-      <c r="AA79" s="22">
+      <c r="AA79">
         <v>0.8</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>87</v>
       </c>
@@ -25114,14 +26004,14 @@
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
-      <c r="Z80" s="22" t="s">
+      <c r="Z80" t="s">
         <v>31</v>
       </c>
-      <c r="AA80" s="22">
+      <c r="AA80">
         <v>38.599999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>88</v>
       </c>
@@ -25202,14 +26092,14 @@
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
-      <c r="Z81" s="23" t="s">
+      <c r="Z81" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AA81" s="23">
+      <c r="AA81" s="12">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>89</v>
       </c>
@@ -25291,7 +26181,7 @@
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>90</v>
       </c>
@@ -25372,12 +26262,12 @@
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
-      <c r="Z83" s="24" t="s">
+      <c r="Z83" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AA83" s="24"/>
-    </row>
-    <row r="84" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA83" s="15"/>
+    </row>
+    <row r="84" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>91</v>
       </c>
@@ -25458,10 +26348,8 @@
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="22"/>
-    </row>
-    <row r="85" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>93</v>
       </c>
@@ -25542,14 +26430,25 @@
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
-      <c r="Z85" s="22" t="s">
+      <c r="Z85" t="s">
         <v>14</v>
       </c>
-      <c r="AA85" s="22">
+      <c r="AA85">
         <v>60.095833333333381</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC85" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD85" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE85" s="18">
+        <f>AA85+AA89</f>
+        <v>66.281733586957415</v>
+      </c>
+      <c r="AF85" s="18"/>
+    </row>
+    <row r="86" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>94</v>
       </c>
@@ -25630,14 +26529,28 @@
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
-      <c r="Z86" s="22" t="s">
+      <c r="Z86" t="s">
         <v>21</v>
       </c>
-      <c r="AA86" s="22">
+      <c r="AA86">
         <v>0.6749370512780638</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC86" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD86" s="18">
+        <f>AE87</f>
+        <v>53.909933079709347</v>
+      </c>
+      <c r="AE86" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF86" s="18">
+        <f>AE85</f>
+        <v>66.281733586957415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>96</v>
       </c>
@@ -25718,205 +26631,248 @@
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
-      <c r="Z87" s="22" t="s">
+      <c r="Z87" t="s">
         <v>22</v>
       </c>
-      <c r="AA87" s="22">
+      <c r="AA87">
         <v>60.56</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z88" s="22" t="s">
+      <c r="AC87" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD87" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE87" s="18">
+        <f>AA85-AA89</f>
+        <v>53.909933079709347</v>
+      </c>
+      <c r="AF87" s="18"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z88" t="s">
         <v>23</v>
       </c>
-      <c r="AA88" s="22" t="e">
+      <c r="AA88" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z89" s="22" t="s">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z89" t="s">
         <v>24</v>
       </c>
-      <c r="AA89" s="22">
+      <c r="AA89">
         <v>6.1859002536240366</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z90" s="22" t="s">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z90" t="s">
         <v>25</v>
       </c>
-      <c r="AA90" s="22">
+      <c r="AA90">
         <v>38.265361947785919</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z91" s="22" t="s">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z91" t="s">
         <v>26</v>
       </c>
-      <c r="AA91" s="22">
+      <c r="AA91">
         <v>-0.51270339726348935</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z92" s="22" t="s">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z92" t="s">
         <v>27</v>
       </c>
-      <c r="AA92" s="22">
+      <c r="AA92">
         <v>-4.9297075627241761E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z93" s="22" t="s">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z93" t="s">
         <v>28</v>
       </c>
-      <c r="AA93" s="22">
+      <c r="AA93">
         <v>27.810000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z94" s="22" t="s">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z94" t="s">
         <v>29</v>
       </c>
-      <c r="AA94" s="22">
+      <c r="AA94">
         <v>45.11</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z95" s="22" t="s">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z95" t="s">
         <v>30</v>
       </c>
-      <c r="AA95" s="22">
+      <c r="AA95">
         <v>72.92</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z96" s="22" t="s">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z96" t="s">
         <v>31</v>
       </c>
-      <c r="AA96" s="22">
+      <c r="AA96">
         <v>5048.0500000000038</v>
       </c>
     </row>
-    <row r="97" spans="26:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z97" s="23" t="s">
+    <row r="97" spans="26:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z97" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AA97" s="23">
+      <c r="AA97" s="12">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="26:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z99" s="24" t="s">
+    <row r="98" spans="26:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z99" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AA99" s="24"/>
-    </row>
-    <row r="100" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z100" s="22"/>
-      <c r="AA100" s="22"/>
-    </row>
-    <row r="101" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z101" s="22" t="s">
+      <c r="AA99" s="15"/>
+    </row>
+    <row r="101" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z101" t="s">
         <v>14</v>
       </c>
-      <c r="AA101" s="22">
+      <c r="AA101">
         <v>23.028690476190473</v>
       </c>
-    </row>
-    <row r="102" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z102" s="22" t="s">
+      <c r="AC101" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD101" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE101" s="18">
+        <f>AA101+AA105</f>
+        <v>25.761842052959533</v>
+      </c>
+      <c r="AF101" s="18"/>
+    </row>
+    <row r="102" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z102" t="s">
         <v>21</v>
       </c>
-      <c r="AA102" s="22">
+      <c r="AA102">
         <v>0.29821128538886027</v>
       </c>
-    </row>
-    <row r="103" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z103" s="22" t="s">
+      <c r="AC102" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD102" s="18">
+        <f>AE103</f>
+        <v>20.295538899421413</v>
+      </c>
+      <c r="AE102" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF102" s="18">
+        <f>AE101</f>
+        <v>25.761842052959533</v>
+      </c>
+    </row>
+    <row r="103" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z103" t="s">
         <v>22</v>
       </c>
-      <c r="AA103" s="22">
+      <c r="AA103">
         <v>22.68</v>
       </c>
-    </row>
-    <row r="104" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z104" s="22" t="s">
+      <c r="AC103" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD103" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE103" s="18">
+        <f>AA101-AA105</f>
+        <v>20.295538899421413</v>
+      </c>
+      <c r="AF103" s="18"/>
+    </row>
+    <row r="104" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z104" t="s">
         <v>23</v>
       </c>
-      <c r="AA104" s="22">
+      <c r="AA104">
         <v>26.25</v>
       </c>
     </row>
-    <row r="105" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z105" s="22" t="s">
+    <row r="105" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z105" t="s">
         <v>24</v>
       </c>
-      <c r="AA105" s="22">
+      <c r="AA105">
         <v>2.7331515767690613</v>
       </c>
     </row>
-    <row r="106" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z106" s="22" t="s">
+    <row r="106" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z106" t="s">
         <v>25</v>
       </c>
-      <c r="AA106" s="22">
+      <c r="AA106">
         <v>7.470117541595207</v>
       </c>
     </row>
-    <row r="107" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z107" s="22" t="s">
+    <row r="107" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z107" t="s">
         <v>26</v>
       </c>
-      <c r="AA107" s="22">
+      <c r="AA107">
         <v>-0.66958901692884121</v>
       </c>
     </row>
-    <row r="108" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z108" s="22" t="s">
+    <row r="108" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z108" t="s">
         <v>27</v>
       </c>
-      <c r="AA108" s="22">
+      <c r="AA108">
         <v>0.28132139491345393</v>
       </c>
     </row>
-    <row r="109" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z109" s="22" t="s">
+    <row r="109" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z109" t="s">
         <v>28</v>
       </c>
-      <c r="AA109" s="22">
+      <c r="AA109">
         <v>11.579999999999998</v>
       </c>
     </row>
-    <row r="110" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z110" s="22" t="s">
+    <row r="110" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z110" t="s">
         <v>29</v>
       </c>
-      <c r="AA110" s="22">
+      <c r="AA110">
         <v>17.720000000000002</v>
       </c>
     </row>
-    <row r="111" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z111" s="22" t="s">
+    <row r="111" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z111" t="s">
         <v>30</v>
       </c>
-      <c r="AA111" s="22">
+      <c r="AA111">
         <v>29.3</v>
       </c>
     </row>
-    <row r="112" spans="26:27" x14ac:dyDescent="0.25">
-      <c r="Z112" s="22" t="s">
+    <row r="112" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z112" t="s">
         <v>31</v>
       </c>
-      <c r="AA112" s="22">
+      <c r="AA112">
         <v>1934.4099999999996</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z113" s="23" t="s">
+      <c r="Z113" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AA113" s="23">
+      <c r="AA113" s="12">
         <v>84</v>
       </c>
     </row>
@@ -25941,8 +26897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95565C6-F0A7-4F1E-8FE2-588B19A5EB00}">
   <dimension ref="A1:AI87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26253,7 +27209,7 @@
       </c>
       <c r="AI5" s="18"/>
     </row>
-    <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -26613,7 +27569,7 @@
         <v>0.36456394547252619</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -26691,7 +27647,7 @@
         <v>0.13290687033849505</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -26775,7 +27731,7 @@
         <v>1.9746741143280984</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27249,7 +28205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -27699,7 +28655,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -27891,7 +28847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -28015,7 +28971,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -28201,7 +29157,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -28391,7 +29347,7 @@
       </c>
       <c r="V35" s="21"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -28532,7 +29488,7 @@
       </c>
       <c r="AA37" s="18"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -28693,7 +29649,7 @@
       </c>
       <c r="AA39" s="18"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42</v>
       </c>
@@ -28829,7 +29785,7 @@
         <v>1.1598245754985343</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44</v>
       </c>
@@ -28903,7 +29859,7 @@
         <v>1.3451930459303552</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -29107,7 +30063,7 @@
         <v>6.1936744174701905</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>50</v>
       </c>
@@ -29175,7 +30131,7 @@
         <v>1.3610558365817524</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>51</v>
       </c>
@@ -29311,7 +30267,7 @@
         <v>363.60333369274366</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>53</v>
       </c>
@@ -29513,7 +30469,7 @@
       </c>
       <c r="V51" s="21"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>56</v>
       </c>
@@ -30167,7 +31123,7 @@
         <v>0.59600682163997198</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>65</v>
       </c>
@@ -31319,7 +32275,7 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>86</v>
       </c>
@@ -31449,7 +32405,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>88</v>
       </c>
@@ -31635,7 +32591,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>91</v>
       </c>
@@ -31899,4 +32855,5967 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11099E33-4D18-42FD-92C7-CF2D3F65F740}">
+  <dimension ref="A1:AI87"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+    </row>
+    <row r="2" spans="1:35" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="1:35" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="21"/>
+      <c r="AC3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="15"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+    </row>
+    <row r="4" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1509.19</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G4" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I4" s="7">
+        <v>67.95</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K4" s="7">
+        <v>29.290000000000003</v>
+      </c>
+      <c r="L4" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M4" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="N4" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="P4" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+    </row>
+    <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1017.68</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G5" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>2.9</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I5" s="7">
+        <v>55.65</v>
+      </c>
+      <c r="J5" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K5" s="7">
+        <v>24.130000000000003</v>
+      </c>
+      <c r="L5" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M5" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.05</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="P5" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5">
+        <v>0.47192261904761912</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="18">
+        <f>V5+V9</f>
+        <v>0.52327584269132077</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AC5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5">
+        <v>3.487738095238095</v>
+      </c>
+      <c r="AF5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5" s="18">
+        <f>AD5+AD9</f>
+        <v>3.852302040710621</v>
+      </c>
+      <c r="AI5" s="18"/>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1168.71</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G6" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.36</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I6" s="7">
+        <v>61.129999999999995</v>
+      </c>
+      <c r="J6" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K6" s="7">
+        <v>24.84</v>
+      </c>
+      <c r="L6" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M6" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="P6" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="U6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6">
+        <v>5.6030960601728226E-3</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="18">
+        <f>Z7</f>
+        <v>0.42056939540391752</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="18">
+        <f>Z5</f>
+        <v>0.52327584269132077</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD6">
+        <v>3.9777187518562018E-2</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="18">
+        <f>AH7</f>
+        <v>3.123174149765569</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="18">
+        <f>AH5</f>
+        <v>3.852302040710621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E7" s="7">
+        <v>994.96</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G7" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.9499999999999997</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I7" s="7">
+        <v>63.059999999999995</v>
+      </c>
+      <c r="J7" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K7" s="7">
+        <v>20.830000000000002</v>
+      </c>
+      <c r="L7" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M7" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="P7" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7">
+        <v>0.47</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="18">
+        <f>V5-V9</f>
+        <v>0.42056939540391752</v>
+      </c>
+      <c r="AA7" s="18"/>
+      <c r="AC7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD7">
+        <v>3.46</v>
+      </c>
+      <c r="AF7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" s="18">
+        <f>AD5-AD9</f>
+        <v>3.123174149765569</v>
+      </c>
+      <c r="AI7" s="18"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1145.04</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G8" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.4299999999999997</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I8" s="7">
+        <v>60.89</v>
+      </c>
+      <c r="J8" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K8" s="7">
+        <v>24.85</v>
+      </c>
+      <c r="L8" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M8" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P8" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8">
+        <v>0.47</v>
+      </c>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AC8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD8">
+        <v>3.6599999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1050.1500000000001</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G9" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.68</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I9" s="7">
+        <v>61.97</v>
+      </c>
+      <c r="J9" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K9" s="7">
+        <v>21.990000000000002</v>
+      </c>
+      <c r="L9" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M9" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>5.1353223643701602E-2</v>
+      </c>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AC9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9">
+        <v>0.36456394547252619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E10" s="7">
+        <v>996.11</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G10" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>2.96</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I10" s="7">
+        <v>58.669999999999995</v>
+      </c>
+      <c r="J10" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K10" s="7">
+        <v>22.39</v>
+      </c>
+      <c r="L10" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M10" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.46</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="P10" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="U10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>2.6371535786000331E-3</v>
+      </c>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AC10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD10">
+        <v>0.13290687033849505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E11" s="7">
+        <v>833.77</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G11" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.71</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I11" s="7">
+        <v>51.89</v>
+      </c>
+      <c r="J11" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K11" s="7">
+        <v>22.180000000000003</v>
+      </c>
+      <c r="L11" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M11" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.23</v>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P11" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.436</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11">
+        <v>0.946739535687251</v>
+      </c>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AC11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD11">
+        <v>1.9746741143280984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1109.43</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G12" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.43</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I12" s="7">
+        <v>63.46</v>
+      </c>
+      <c r="J12" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K12" s="7">
+        <v>22.900000000000002</v>
+      </c>
+      <c r="L12" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M12" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.63</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P12" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12">
+        <v>0.51006960395610834</v>
+      </c>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AC12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12">
+        <v>0.78620840872131348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1049.8399999999999</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G13" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.7399999999999998</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I13" s="7">
+        <v>59.62</v>
+      </c>
+      <c r="J13" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K13" s="7">
+        <v>22.830000000000002</v>
+      </c>
+      <c r="L13" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M13" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P13" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0.436</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13">
+        <v>0.26</v>
+      </c>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AC13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD13">
+        <v>2.0799999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1087.43</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G14" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I14" s="7">
+        <v>60.48</v>
+      </c>
+      <c r="J14" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K14" s="7">
+        <v>24.240000000000002</v>
+      </c>
+      <c r="L14" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M14" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.3699999999999997</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P14" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="U14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AC14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD14">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1110.79</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G15" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.42</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I15" s="7">
+        <v>61.57</v>
+      </c>
+      <c r="J15" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K15" s="7">
+        <v>25.150000000000002</v>
+      </c>
+      <c r="L15" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M15" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.42</v>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="P15" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15">
+        <v>0.624</v>
+      </c>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AC15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1400.16</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G16" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.21</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I16" s="7">
+        <v>68.97</v>
+      </c>
+      <c r="J16" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K16" s="7">
+        <v>26.25</v>
+      </c>
+      <c r="L16" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M16" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4</v>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="P16" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16">
+        <v>39.641500000000008</v>
+      </c>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AC16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16">
+        <v>292.96999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1077.49</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G17" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>7.29</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I17" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="J17" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K17" s="7">
+        <v>22.34</v>
+      </c>
+      <c r="L17" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M17" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.8699999999999997</v>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="P17" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="U17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="12">
+        <v>84</v>
+      </c>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AC17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E18" s="7">
+        <v>937.25</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G18" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>7.33</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I18" s="7">
+        <v>65.61</v>
+      </c>
+      <c r="J18" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K18" s="7">
+        <v>19.62</v>
+      </c>
+      <c r="L18" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M18" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="P18" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E19" s="7">
+        <v>922.06</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G19" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.26</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I19" s="7">
+        <v>58.839999999999996</v>
+      </c>
+      <c r="J19" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K19" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="L19" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M19" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.76</v>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="P19" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E20" s="7">
+        <v>931.91</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G20" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.27</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I20" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K20" s="7">
+        <v>21.17</v>
+      </c>
+      <c r="L20" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M20" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4099999999999997</v>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P20" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E21" s="7">
+        <v>818.48</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G21" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I21" s="7">
+        <v>52.43</v>
+      </c>
+      <c r="J21" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K21" s="7">
+        <v>21.23</v>
+      </c>
+      <c r="L21" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M21" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.36</v>
+      </c>
+      <c r="N21" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="P21" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="S21" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1109.8499999999999</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G22" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.5399999999999996</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I22" s="7">
+        <v>55.93</v>
+      </c>
+      <c r="J22" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K22" s="7">
+        <v>26.89</v>
+      </c>
+      <c r="L22" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M22" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>2.82</v>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="P22" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E23" s="7">
+        <v>779</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G23" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.04</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I23" s="7">
+        <v>53.46</v>
+      </c>
+      <c r="J23" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K23" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="L23" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M23" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.67</v>
+      </c>
+      <c r="N23" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P23" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E24" s="7">
+        <v>880.17</v>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G24" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>2.23</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I24" s="7">
+        <v>50</v>
+      </c>
+      <c r="J24" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K24" s="7">
+        <v>25.180000000000003</v>
+      </c>
+      <c r="L24" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M24" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="P24" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E25" s="7">
+        <v>968.04</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G25" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.05</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I25" s="7">
+        <v>57.339999999999996</v>
+      </c>
+      <c r="J25" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K25" s="7">
+        <v>22.25</v>
+      </c>
+      <c r="L25" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M25" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4</v>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="P25" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1295.22</v>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G26" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.7899999999999996</v>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I26" s="7">
+        <v>67.58</v>
+      </c>
+      <c r="J26" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K26" s="7">
+        <v>24.46</v>
+      </c>
+      <c r="L26" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M26" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.53</v>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P26" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1362.67</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G27" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I27" s="7">
+        <v>68.600000000000009</v>
+      </c>
+      <c r="J27" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K27" s="7">
+        <v>26.25</v>
+      </c>
+      <c r="L27" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M27" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.46</v>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="P27" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="S27" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>28</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1003.86</v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G28" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H28" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I28" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="J28" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K28" s="7">
+        <v>21.26</v>
+      </c>
+      <c r="L28" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M28" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.75</v>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="P28" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D29" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1002.29</v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G29" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.88</v>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I29" s="7">
+        <v>55.83</v>
+      </c>
+      <c r="J29" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K29" s="7">
+        <v>24.82</v>
+      </c>
+      <c r="L29" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M29" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.11</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="P29" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E30" s="7">
+        <v>850.85</v>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G30" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.77</v>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I30" s="7">
+        <v>59.22</v>
+      </c>
+      <c r="J30" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K30" s="7">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="L30" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M30" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>4.13</v>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="P30" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D31" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1223.17</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G31" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.8199999999999994</v>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I31" s="7">
+        <v>66.070000000000007</v>
+      </c>
+      <c r="J31" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K31" s="7">
+        <v>24.96</v>
+      </c>
+      <c r="L31" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M31" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.57</v>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="P31" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>32</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D32" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E32" s="7">
+        <v>890.43</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G32" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.41</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I32" s="7">
+        <v>58.629999999999995</v>
+      </c>
+      <c r="J32" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K32" s="7">
+        <v>22.060000000000002</v>
+      </c>
+      <c r="L32" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M32" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.8699999999999997</v>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="P32" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>33</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D33" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1539.46</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G33" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.47</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I33" s="7">
+        <v>69.940000000000012</v>
+      </c>
+      <c r="J33" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K33" s="7">
+        <v>29.3</v>
+      </c>
+      <c r="L33" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M33" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="N33" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="P33" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4">
+        <v>35</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1136.8699999999999</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G34" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>6.05</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I34" s="7">
+        <v>62.9</v>
+      </c>
+      <c r="J34" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K34" s="7">
+        <v>23.830000000000002</v>
+      </c>
+      <c r="L34" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M34" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4899999999999998</v>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="P34" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4">
+        <v>36</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1177.82</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G35" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.17</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I35" s="7">
+        <v>61</v>
+      </c>
+      <c r="J35" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K35" s="7">
+        <v>25.91</v>
+      </c>
+      <c r="L35" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M35" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.1599999999999997</v>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="P35" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="U35" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="V35" s="21"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4">
+        <v>38</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E36" s="7">
+        <v>864.36</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G36" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.68</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I36" s="7">
+        <v>58.11</v>
+      </c>
+      <c r="J36" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K36" s="7">
+        <v>19.110000000000003</v>
+      </c>
+      <c r="L36" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M36" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.9099999999999997</v>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P36" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4">
+        <v>39</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D37" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1292.3900000000001</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G37" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.0399999999999996</v>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I37" s="7">
+        <v>68.100000000000009</v>
+      </c>
+      <c r="J37" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K37" s="7">
+        <v>24.900000000000002</v>
+      </c>
+      <c r="L37" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M37" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.59</v>
+      </c>
+      <c r="N37" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="P37" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="U37" t="s">
+        <v>14</v>
+      </c>
+      <c r="V37">
+        <v>4.3286111153898057</v>
+      </c>
+      <c r="X37" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z37" s="18">
+        <f>V37+V41</f>
+        <v>5.4884356908883403</v>
+      </c>
+      <c r="AA37" s="18"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D38" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E38" s="7">
+        <v>948.87</v>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G38" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I38" s="7">
+        <v>58.129999999999995</v>
+      </c>
+      <c r="J38" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K38" s="7">
+        <v>21.41</v>
+      </c>
+      <c r="L38" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M38" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.57</v>
+      </c>
+      <c r="N38" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="P38" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="U38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38">
+        <v>0.12654723595457282</v>
+      </c>
+      <c r="X38" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="18">
+        <f>Z39</f>
+        <v>3.1687865398912711</v>
+      </c>
+      <c r="Z38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA38" s="18">
+        <f>Z37</f>
+        <v>5.4884356908883403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4">
+        <v>41</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D39" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1134.67</v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G39" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.1899999999999995</v>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I39" s="7">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="J39" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K39" s="7">
+        <v>22.91</v>
+      </c>
+      <c r="L39" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M39" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="N39" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="P39" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="U39" t="s">
+        <v>22</v>
+      </c>
+      <c r="V39">
+        <v>4.1986956553478194</v>
+      </c>
+      <c r="X39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z39" s="18">
+        <f>V37-V41</f>
+        <v>3.1687865398912711</v>
+      </c>
+      <c r="AA39" s="18"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42</v>
+      </c>
+      <c r="B40" s="4">
+        <v>43</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D40" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E40" s="7">
+        <v>950.55</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G40" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.13</v>
+      </c>
+      <c r="H40" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I40" s="7">
+        <v>57.6</v>
+      </c>
+      <c r="J40" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K40" s="7">
+        <v>21.970000000000002</v>
+      </c>
+      <c r="L40" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M40" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N40" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="P40" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="U40" t="s">
+        <v>23</v>
+      </c>
+      <c r="V40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4">
+        <v>44</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1186.83</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G41" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I41" s="7">
+        <v>64.61</v>
+      </c>
+      <c r="J41" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K41" s="7">
+        <v>24.150000000000002</v>
+      </c>
+      <c r="L41" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M41" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.5199999999999996</v>
+      </c>
+      <c r="N41" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P41" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="U41" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41">
+        <v>1.1598245754985343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E42" s="7">
+        <v>964.9</v>
+      </c>
+      <c r="F42" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G42" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.0699999999999994</v>
+      </c>
+      <c r="H42" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I42" s="7">
+        <v>51.32</v>
+      </c>
+      <c r="J42" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K42" s="7">
+        <v>26.110000000000003</v>
+      </c>
+      <c r="L42" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M42" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>2.73</v>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.379</v>
+      </c>
+      <c r="P42" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0.433</v>
+      </c>
+      <c r="U42" t="s">
+        <v>25</v>
+      </c>
+      <c r="V42">
+        <v>1.3451930459303552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4">
+        <v>47</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D43" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E43" s="7">
+        <v>941.12</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G43" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>6.26</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I43" s="7">
+        <v>59.129999999999995</v>
+      </c>
+      <c r="J43" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K43" s="7">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="L43" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M43" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="N43" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="P43" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="U43" t="s">
+        <v>26</v>
+      </c>
+      <c r="V43">
+        <v>0.8473174712085485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4">
+        <v>48</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1248.72</v>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G44" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I44" s="7">
+        <v>64.36</v>
+      </c>
+      <c r="J44" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K44" s="7">
+        <v>25.630000000000003</v>
+      </c>
+      <c r="L44" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M44" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.32</v>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="P44" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="U44" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44">
+        <v>0.57662052144943787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>49</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D45" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E45" s="7">
+        <v>986.58</v>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G45" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.97</v>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I45" s="7">
+        <v>61.489999999999995</v>
+      </c>
+      <c r="J45" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K45" s="7">
+        <v>21.180000000000003</v>
+      </c>
+      <c r="L45" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M45" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.84</v>
+      </c>
+      <c r="N45" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="P45" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="U45" t="s">
+        <v>28</v>
+      </c>
+      <c r="V45">
+        <v>6.1936744174701905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>50</v>
+      </c>
+      <c r="B46" s="4">
+        <v>51</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D46" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E46" s="7">
+        <v>629.97</v>
+      </c>
+      <c r="F46" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G46" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.68</v>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I46" s="7">
+        <v>45.11</v>
+      </c>
+      <c r="J46" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K46" s="7">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="L46" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M46" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="P46" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="U46" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46">
+        <v>1.3610558365817524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4">
+        <v>52</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1222.43</v>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G47" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I47" s="7">
+        <v>66.87</v>
+      </c>
+      <c r="J47" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K47" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="L47" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M47" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0.621</v>
+      </c>
+      <c r="P47" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="U47" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47">
+        <v>7.5547302540519432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>52</v>
+      </c>
+      <c r="B48" s="4">
+        <v>53</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D48" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E48" s="7">
+        <v>982.7</v>
+      </c>
+      <c r="F48" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G48" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4</v>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I48" s="7">
+        <v>62.93</v>
+      </c>
+      <c r="J48" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K48" s="7">
+        <v>20.790000000000003</v>
+      </c>
+      <c r="L48" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M48" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>4.0299999999999994</v>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0.443</v>
+      </c>
+      <c r="P48" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="U48" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48">
+        <v>363.60333369274366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>53</v>
+      </c>
+      <c r="B49" s="4">
+        <v>54</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D49" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E49" s="7">
+        <v>884.46</v>
+      </c>
+      <c r="F49" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G49" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="H49" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I49" s="7">
+        <v>55.29</v>
+      </c>
+      <c r="J49" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K49" s="7">
+        <v>20.520000000000003</v>
+      </c>
+      <c r="L49" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M49" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.46</v>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="P49" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="U49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>54</v>
+      </c>
+      <c r="B50" s="4">
+        <v>55</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D50" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E50" s="7">
+        <v>812.93</v>
+      </c>
+      <c r="F50" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G50" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I50" s="7">
+        <v>53.71</v>
+      </c>
+      <c r="J50" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K50" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="L50" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M50" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.55</v>
+      </c>
+      <c r="N50" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="P50" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4">
+        <v>56</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1169.6500000000001</v>
+      </c>
+      <c r="F51" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G51" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I51" s="7">
+        <v>61.629999999999995</v>
+      </c>
+      <c r="J51" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K51" s="7">
+        <v>24.35</v>
+      </c>
+      <c r="L51" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M51" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.25</v>
+      </c>
+      <c r="N51" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0.442</v>
+      </c>
+      <c r="P51" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="S51" s="9">
+        <v>0.496</v>
+      </c>
+      <c r="U51" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="V51" s="21"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4">
+        <v>57</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D52" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E52" s="7">
+        <v>801.73</v>
+      </c>
+      <c r="F52" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G52" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="H52" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I52" s="7">
+        <v>55.339999999999996</v>
+      </c>
+      <c r="J52" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K52" s="7">
+        <v>19.270000000000003</v>
+      </c>
+      <c r="L52" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M52" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.82</v>
+      </c>
+      <c r="N52" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0.376</v>
+      </c>
+      <c r="P52" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4">
+        <v>58</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D53" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E53" s="7">
+        <v>957.99</v>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G53" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H53" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I53" s="7">
+        <v>54.089999999999996</v>
+      </c>
+      <c r="J53" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K53" s="7">
+        <v>27</v>
+      </c>
+      <c r="L53" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M53" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="N53" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P53" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="U53" t="s">
+        <v>14</v>
+      </c>
+      <c r="V53">
+        <v>1050.7687486749999</v>
+      </c>
+      <c r="X53" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y53" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z53" s="18">
+        <f>V53+V57</f>
+        <v>1258.3630672908646</v>
+      </c>
+      <c r="AA53" s="18"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>58</v>
+      </c>
+      <c r="B54" s="4">
+        <v>59</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D54" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1374.3</v>
+      </c>
+      <c r="F54" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G54" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.29</v>
+      </c>
+      <c r="H54" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I54" s="7">
+        <v>69.820000000000007</v>
+      </c>
+      <c r="J54" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K54" s="7">
+        <v>25.270000000000003</v>
+      </c>
+      <c r="L54" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M54" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.55</v>
+      </c>
+      <c r="N54" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="P54" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="U54" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54">
+        <v>22.650397116666191</v>
+      </c>
+      <c r="X54" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y54" s="18">
+        <f>Z55</f>
+        <v>843.17443005913526</v>
+      </c>
+      <c r="Z54" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA54" s="18">
+        <f>Z53</f>
+        <v>1258.3630672908646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>59</v>
+      </c>
+      <c r="B55" s="4">
+        <v>60</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D55" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1211.75</v>
+      </c>
+      <c r="F55" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G55" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="H55" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I55" s="7">
+        <v>63.85</v>
+      </c>
+      <c r="J55" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K55" s="7">
+        <v>25.92</v>
+      </c>
+      <c r="L55" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M55" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.3699999999999997</v>
+      </c>
+      <c r="N55" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="P55" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="U55" t="s">
+        <v>22</v>
+      </c>
+      <c r="V55">
+        <v>1003.0684200000001</v>
+      </c>
+      <c r="X55" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y55" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z55" s="18">
+        <f>V53-V57</f>
+        <v>843.17443005913526</v>
+      </c>
+      <c r="AA55" s="18"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>60</v>
+      </c>
+      <c r="B56" s="4">
+        <v>61</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1547.84</v>
+      </c>
+      <c r="F56" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G56" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.17</v>
+      </c>
+      <c r="H56" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I56" s="7">
+        <v>68.850000000000009</v>
+      </c>
+      <c r="J56" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K56" s="7">
+        <v>29.220000000000002</v>
+      </c>
+      <c r="L56" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M56" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.07</v>
+      </c>
+      <c r="N56" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="P56" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="U56" t="s">
+        <v>23</v>
+      </c>
+      <c r="V56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>61</v>
+      </c>
+      <c r="B57" s="4">
+        <v>62</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D57" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E57" s="7">
+        <v>966.89</v>
+      </c>
+      <c r="F57" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G57" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.05</v>
+      </c>
+      <c r="H57" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I57" s="7">
+        <v>58.91</v>
+      </c>
+      <c r="J57" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K57" s="7">
+        <v>21.89</v>
+      </c>
+      <c r="L57" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M57" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.59</v>
+      </c>
+      <c r="N57" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0.436</v>
+      </c>
+      <c r="P57" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="U57" t="s">
+        <v>24</v>
+      </c>
+      <c r="V57">
+        <v>207.59431861586464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>62</v>
+      </c>
+      <c r="B58" s="4">
+        <v>63</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D58" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E58" s="7">
+        <v>843.83</v>
+      </c>
+      <c r="F58" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G58" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.66</v>
+      </c>
+      <c r="H58" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I58" s="7">
+        <v>53.65</v>
+      </c>
+      <c r="J58" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K58" s="7">
+        <v>21.34</v>
+      </c>
+      <c r="L58" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M58" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.42</v>
+      </c>
+      <c r="N58" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="P58" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="R58" s="9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="U58" t="s">
+        <v>25</v>
+      </c>
+      <c r="V58">
+        <v>43095.401121585128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4">
+        <v>64</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D59" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1226.0999999999999</v>
+      </c>
+      <c r="F59" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G59" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.21</v>
+      </c>
+      <c r="H59" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I59" s="7">
+        <v>65.460000000000008</v>
+      </c>
+      <c r="J59" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K59" s="7">
+        <v>24.35</v>
+      </c>
+      <c r="L59" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M59" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N59" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0.433</v>
+      </c>
+      <c r="P59" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="U59" t="s">
+        <v>26</v>
+      </c>
+      <c r="V59">
+        <v>8.542744870018959E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>64</v>
+      </c>
+      <c r="B60" s="4">
+        <v>65</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D60" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E60" s="7">
+        <v>802.88</v>
+      </c>
+      <c r="F60" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G60" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="H60" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I60" s="7">
+        <v>51.69</v>
+      </c>
+      <c r="J60" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K60" s="7">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="L60" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M60" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="N60" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O60" s="8">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="P60" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="R60" s="9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="U60" t="s">
+        <v>27</v>
+      </c>
+      <c r="V60">
+        <v>0.59600682163997198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>65</v>
+      </c>
+      <c r="B61" s="4">
+        <v>66</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D61" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1075.5</v>
+      </c>
+      <c r="F61" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G61" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>2.7399999999999998</v>
+      </c>
+      <c r="H61" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I61" s="7">
+        <v>60.65</v>
+      </c>
+      <c r="J61" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K61" s="7">
+        <v>22.25</v>
+      </c>
+      <c r="L61" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M61" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4299999999999997</v>
+      </c>
+      <c r="N61" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="P61" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="U61" t="s">
+        <v>28</v>
+      </c>
+      <c r="V61">
+        <v>939.96753489999992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>66</v>
+      </c>
+      <c r="B62" s="4">
+        <v>67</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E62" s="7">
+        <v>866.56</v>
+      </c>
+      <c r="F62" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G62" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.4</v>
+      </c>
+      <c r="H62" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I62" s="7">
+        <v>56.07</v>
+      </c>
+      <c r="J62" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K62" s="7">
+        <v>20.060000000000002</v>
+      </c>
+      <c r="L62" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M62" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.63</v>
+      </c>
+      <c r="N62" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="P62" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="U62" t="s">
+        <v>29</v>
+      </c>
+      <c r="V62">
+        <v>629.96152910000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4">
+        <v>68</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E63" s="7">
+        <v>720.77</v>
+      </c>
+      <c r="F63" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G63" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>1.37</v>
+      </c>
+      <c r="H63" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I63" s="7">
+        <v>48.309999999999995</v>
+      </c>
+      <c r="J63" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K63" s="7">
+        <v>19.810000000000002</v>
+      </c>
+      <c r="L63" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M63" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="N63" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="P63" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="U63" t="s">
+        <v>30</v>
+      </c>
+      <c r="V63">
+        <v>1569.9290639999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>68</v>
+      </c>
+      <c r="B64" s="4">
+        <v>69</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E64" s="7">
+        <v>978.3</v>
+      </c>
+      <c r="F64" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G64" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H64" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I64" s="7">
+        <v>61.03</v>
+      </c>
+      <c r="J64" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K64" s="7">
+        <v>20.380000000000003</v>
+      </c>
+      <c r="L64" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M64" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.8099999999999996</v>
+      </c>
+      <c r="N64" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="P64" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="U64" t="s">
+        <v>31</v>
+      </c>
+      <c r="V64">
+        <v>88264.574888699994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>69</v>
+      </c>
+      <c r="B65" s="4">
+        <v>70</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E65" s="7">
+        <v>844.77</v>
+      </c>
+      <c r="F65" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G65" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.6499999999999995</v>
+      </c>
+      <c r="H65" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I65" s="7">
+        <v>55.58</v>
+      </c>
+      <c r="J65" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K65" s="7">
+        <v>19.970000000000002</v>
+      </c>
+      <c r="L65" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M65" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="N65" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P65" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="U65" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V65" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>70</v>
+      </c>
+      <c r="B66" s="4">
+        <v>71</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1043.76</v>
+      </c>
+      <c r="F66" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G66" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.64</v>
+      </c>
+      <c r="H66" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I66" s="7">
+        <v>59.98</v>
+      </c>
+      <c r="J66" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K66" s="7">
+        <v>22.96</v>
+      </c>
+      <c r="L66" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M66" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="N66" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="P66" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>71</v>
+      </c>
+      <c r="B67" s="4">
+        <v>72</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D67" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E67" s="7">
+        <v>963.64</v>
+      </c>
+      <c r="F67" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G67" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.0599999999999996</v>
+      </c>
+      <c r="H67" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I67" s="7">
+        <v>55.4</v>
+      </c>
+      <c r="J67" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K67" s="7">
+        <v>24.71</v>
+      </c>
+      <c r="L67" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M67" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.19</v>
+      </c>
+      <c r="N67" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O67" s="8">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="P67" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>72</v>
+      </c>
+      <c r="B68" s="4">
+        <v>73</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D68" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E68" s="7">
+        <v>856.81999999999994</v>
+      </c>
+      <c r="F68" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G68" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.58</v>
+      </c>
+      <c r="H68" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I68" s="7">
+        <v>51.08</v>
+      </c>
+      <c r="J68" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K68" s="7">
+        <v>22.53</v>
+      </c>
+      <c r="L68" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M68" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.05</v>
+      </c>
+      <c r="N68" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O68" s="8">
+        <v>0.501</v>
+      </c>
+      <c r="P68" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>74</v>
+      </c>
+      <c r="B69" s="4">
+        <v>75</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E69" s="7">
+        <v>979.98</v>
+      </c>
+      <c r="F69" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G69" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.01</v>
+      </c>
+      <c r="H69" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I69" s="7">
+        <v>62.71</v>
+      </c>
+      <c r="J69" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K69" s="7">
+        <v>20.040000000000003</v>
+      </c>
+      <c r="L69" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M69" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N69" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O69" s="8">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="P69" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>75</v>
+      </c>
+      <c r="B70" s="4">
+        <v>76</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D70" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1233.33</v>
+      </c>
+      <c r="F70" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G70" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="H70" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I70" s="7">
+        <v>72.84</v>
+      </c>
+      <c r="J70" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K70" s="7">
+        <v>22.430000000000003</v>
+      </c>
+      <c r="L70" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M70" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="N70" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O70" s="8">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="P70" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>76</v>
+      </c>
+      <c r="B71" s="4">
+        <v>77</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D71" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E71" s="7">
+        <v>677.62</v>
+      </c>
+      <c r="F71" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G71" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H71" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I71" s="7">
+        <v>50.03</v>
+      </c>
+      <c r="J71" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K71" s="7">
+        <v>17.720000000000002</v>
+      </c>
+      <c r="L71" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M71" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="N71" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O71" s="8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P71" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>0.433</v>
+      </c>
+      <c r="R71" s="9">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="S71" s="9">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>77</v>
+      </c>
+      <c r="B72" s="4">
+        <v>78</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D72" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1151.6400000000001</v>
+      </c>
+      <c r="F72" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G72" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.12</v>
+      </c>
+      <c r="H72" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I72" s="7">
+        <v>64.83</v>
+      </c>
+      <c r="J72" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K72" s="7">
+        <v>23.400000000000002</v>
+      </c>
+      <c r="L72" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M72" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.65</v>
+      </c>
+      <c r="N72" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O72" s="8">
+        <v>0.438</v>
+      </c>
+      <c r="P72" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4">
+        <v>79</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D73" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E73" s="7">
+        <v>789.47</v>
+      </c>
+      <c r="F73" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G73" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.9799999999999995</v>
+      </c>
+      <c r="H73" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I73" s="7">
+        <v>52.22</v>
+      </c>
+      <c r="J73" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K73" s="7">
+        <v>20.85</v>
+      </c>
+      <c r="L73" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M73" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.46</v>
+      </c>
+      <c r="N73" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="P73" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>79</v>
+      </c>
+      <c r="B74" s="4">
+        <v>80</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D74" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E74" s="7">
+        <v>838.7</v>
+      </c>
+      <c r="F74" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G74" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.85</v>
+      </c>
+      <c r="H74" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I74" s="7">
+        <v>49.97</v>
+      </c>
+      <c r="J74" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K74" s="7">
+        <v>22.290000000000003</v>
+      </c>
+      <c r="L74" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M74" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>2.98</v>
+      </c>
+      <c r="N74" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0.442</v>
+      </c>
+      <c r="P74" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>81</v>
+      </c>
+      <c r="B75" s="4">
+        <v>82</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D75" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1199.71</v>
+      </c>
+      <c r="F75" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G75" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.28</v>
+      </c>
+      <c r="H75" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I75" s="7">
+        <v>63.019999999999996</v>
+      </c>
+      <c r="J75" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K75" s="7">
+        <v>24.900000000000002</v>
+      </c>
+      <c r="L75" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M75" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.32</v>
+      </c>
+      <c r="N75" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P75" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>82</v>
+      </c>
+      <c r="B76" s="4">
+        <v>83</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D76" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1569.93</v>
+      </c>
+      <c r="F76" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G76" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.75</v>
+      </c>
+      <c r="H76" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I76" s="7">
+        <v>72.92</v>
+      </c>
+      <c r="J76" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K76" s="7">
+        <v>27.680000000000003</v>
+      </c>
+      <c r="L76" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M76" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="N76" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P76" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+    </row>
+    <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>83</v>
+      </c>
+      <c r="B77" s="4">
+        <v>84</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D77" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1537.36</v>
+      </c>
+      <c r="F77" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G77" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.8299999999999996</v>
+      </c>
+      <c r="H77" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I77" s="7">
+        <v>72.28</v>
+      </c>
+      <c r="J77" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K77" s="7">
+        <v>27.28</v>
+      </c>
+      <c r="L77" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M77" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4</v>
+      </c>
+      <c r="N77" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P77" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+    </row>
+    <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>84</v>
+      </c>
+      <c r="B78" s="4">
+        <v>85</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D78" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E78" s="7">
+        <v>776.7</v>
+      </c>
+      <c r="F78" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="G78" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.7899999999999996</v>
+      </c>
+      <c r="H78" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I78" s="7">
+        <v>52.04</v>
+      </c>
+      <c r="J78" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K78" s="7">
+        <v>19.520000000000003</v>
+      </c>
+      <c r="L78" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M78" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.4899999999999998</v>
+      </c>
+      <c r="N78" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P78" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>86</v>
+      </c>
+      <c r="B79" s="4">
+        <v>87</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1108.7</v>
+      </c>
+      <c r="F79" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G79" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>4.43</v>
+      </c>
+      <c r="H79" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I79" s="7">
+        <v>58.809999999999995</v>
+      </c>
+      <c r="J79" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K79" s="7">
+        <v>26.150000000000002</v>
+      </c>
+      <c r="L79" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M79" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.1199999999999997</v>
+      </c>
+      <c r="N79" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="P79" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>FAST</v>
+      </c>
+      <c r="Q79" s="9">
+        <v>0.377</v>
+      </c>
+      <c r="R79" s="9">
+        <v>0.434</v>
+      </c>
+      <c r="S79" s="9">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>87</v>
+      </c>
+      <c r="B80" s="4">
+        <v>88</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D80" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1005.95</v>
+      </c>
+      <c r="F80" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G80" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.9099999999999997</v>
+      </c>
+      <c r="H80" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I80" s="7">
+        <v>60.64</v>
+      </c>
+      <c r="J80" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K80" s="7">
+        <v>20.470000000000002</v>
+      </c>
+      <c r="L80" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M80" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="N80" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O80" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="P80" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+    </row>
+    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>88</v>
+      </c>
+      <c r="B81" s="4">
+        <v>89</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1235.6299999999999</v>
+      </c>
+      <c r="F81" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G81" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="H81" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I81" s="7">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="J81" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K81" s="7">
+        <v>23.32</v>
+      </c>
+      <c r="L81" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="M81" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="N81" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="P81" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+    </row>
+    <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>89</v>
+      </c>
+      <c r="B82" s="4">
+        <v>90</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D82" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1223.48</v>
+      </c>
+      <c r="F82" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G82" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.21</v>
+      </c>
+      <c r="H82" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I82" s="7">
+        <v>63.87</v>
+      </c>
+      <c r="J82" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K82" s="7">
+        <v>26.16</v>
+      </c>
+      <c r="L82" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M82" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.34</v>
+      </c>
+      <c r="N82" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0.439</v>
+      </c>
+      <c r="P82" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+    </row>
+    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>90</v>
+      </c>
+      <c r="B83" s="4">
+        <v>91</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D83" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E83" s="7">
+        <v>989.09</v>
+      </c>
+      <c r="F83" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G83" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>5.96</v>
+      </c>
+      <c r="H83" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I83" s="7">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="J83" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K83" s="7">
+        <v>19.03</v>
+      </c>
+      <c r="L83" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M83" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="N83" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="P83" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+    </row>
+    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>91</v>
+      </c>
+      <c r="B84" s="4">
+        <v>92</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D84" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E84" s="7">
+        <v>928.98</v>
+      </c>
+      <c r="F84" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G84" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.17</v>
+      </c>
+      <c r="H84" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I84" s="7">
+        <v>59.68</v>
+      </c>
+      <c r="J84" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K84" s="7">
+        <v>19.82</v>
+      </c>
+      <c r="L84" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="M84" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.84</v>
+      </c>
+      <c r="N84" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O84" s="8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="P84" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>SLOW</v>
+      </c>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+    </row>
+    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>93</v>
+      </c>
+      <c r="B85" s="4">
+        <v>94</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D85" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1324.76</v>
+      </c>
+      <c r="F85" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="G85" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>3.71</v>
+      </c>
+      <c r="H85" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="I85" s="7">
+        <v>63.379999999999995</v>
+      </c>
+      <c r="J85" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="K85" s="7">
+        <v>26.84</v>
+      </c>
+      <c r="L85" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M85" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.0399999999999996</v>
+      </c>
+      <c r="N85" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O85" s="8">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P85" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+    </row>
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>94</v>
+      </c>
+      <c r="B86" s="4">
+        <v>95</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D86" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="E86" s="7">
+        <v>908.97</v>
+      </c>
+      <c r="F86" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G86" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>7.56</v>
+      </c>
+      <c r="H86" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="I86" s="7">
+        <v>50.25</v>
+      </c>
+      <c r="J86" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="K86" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="L86" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M86" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>2.78</v>
+      </c>
+      <c r="N86" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="O86" s="8">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P86" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+    </row>
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>96</v>
+      </c>
+      <c r="B87" s="4">
+        <v>97</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D87" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.5, "L", (IF(Table15673[[#This Row],[Mass '[g']]]&gt;0.3, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1100.32</v>
+      </c>
+      <c r="F87" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$53, "L", (IF(Table15673[[#This Row],[Area '[mm^2']]]&gt;$Z$55, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="G87" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Mass '[g']]]*0.001*9.81)/(Table15673[[#This Row],[Area '[mm^2']]]*0.000001),2)</f>
+        <v>2.6799999999999997</v>
+      </c>
+      <c r="H87" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$37, "L", (IF(Table15673[[#This Row],[Loading: mg/A '[N/m^2']]]&gt;$Z$39, "M", "S")))</f>
+        <v>S</v>
+      </c>
+      <c r="I87" s="7">
+        <v>58.75</v>
+      </c>
+      <c r="J87" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;63, "L", (IF(Table15673[[#This Row],[Span: b '[mm']]]&gt;58, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="K87" s="7">
+        <v>25.810000000000002</v>
+      </c>
+      <c r="L87" s="16" t="str">
+        <f>IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;24.5, "L", (IF(Table15673[[#This Row],[Chord: c '[mm']]]&gt;21, "M", "S")))</f>
+        <v>L</v>
+      </c>
+      <c r="M87" s="7">
+        <f>ROUNDUP((Table15673[[#This Row],[Span: b '[mm']]]^2)/Table15673[[#This Row],[Area '[mm^2']]],2)</f>
+        <v>3.1399999999999997</v>
+      </c>
+      <c r="N87" s="7" t="str">
+        <f>IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$5, "L", (IF(Table15673[[#This Row],[Aspect Ratio = b^2/A]]&gt;$AH$7, "M", "S")))</f>
+        <v>M</v>
+      </c>
+      <c r="O87" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="P87" s="8" t="str">
+        <f>IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$5, "SLOW", (IF(Table15673[[#This Row],[Transition Time: t '[s']]]&gt;$Z$7, "AVERAGE", "FAST")))</f>
+        <v>AVERAGE</v>
+      </c>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U51:V51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>